--- a/data/external/sra_ras_sum/sierra_data_summary_2020.xlsx
+++ b/data/external/sra_ras_sum/sierra_data_summary_2020.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="292">
   <si>
     <t>PM</t>
   </si>
@@ -748,15 +748,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Pmeco</t>
-  </si>
-  <si>
-    <t>rep</t>
-  </si>
-  <si>
-    <t>bot</t>
-  </si>
-  <si>
     <t>ANRF1 0-11</t>
   </si>
   <si>
@@ -908,6 +899,18 @@
   </si>
   <si>
     <t>pro_name_index</t>
+  </si>
+  <si>
+    <t>PMeco</t>
+  </si>
+  <si>
+    <t>pro_rep</t>
+  </si>
+  <si>
+    <t>lyr_top</t>
+  </si>
+  <si>
+    <t>lyr_bot</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1419,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1451,21 +1454,21 @@
         <v>88</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="16" t="str">
-        <f>F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;"-"&amp;I2</f>
+        <f t="shared" ref="A2:A33" si="0">F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;"-"&amp;I2</f>
         <v>BSrf_1_0-3</v>
       </c>
       <c r="B2" t="s">
@@ -1481,7 +1484,7 @@
         <v>75</v>
       </c>
       <c r="F2" s="16" t="str">
-        <f t="shared" ref="F2:F51" si="0">IF(LEFT(B2,4)="BSRF","BSrf",IF(LEFT(B2,4)="BSSP","BSwf",IF(LEFT(B2,4)="BSPP","BSpp",IF(LEFT(B2,4)="BSOK","",IF(LEFT(B2,4)="ANRF","ANrf",IF(LEFT(B2,4)="ANSP","Anwf",IF(LEFT(B2,4)="ANPP","ANpp",IF(LEFT(B2,4)="GRRF","GRrf",IF(LEFT(B2,4)="GRSP","GRwf",IF(LEFT(B2,4)="GRPP","GRpp",""))))))))))</f>
+        <f t="shared" ref="F2:F51" si="1">IF(LEFT(B2,4)="BSRF","BSrf",IF(LEFT(B2,4)="BSSP","BSwf",IF(LEFT(B2,4)="BSPP","BSpp",IF(LEFT(B2,4)="BSOK","",IF(LEFT(B2,4)="ANRF","ANrf",IF(LEFT(B2,4)="ANSP","Anwf",IF(LEFT(B2,4)="ANPP","ANpp",IF(LEFT(B2,4)="GRRF","GRrf",IF(LEFT(B2,4)="GRSP","GRwf",IF(LEFT(B2,4)="GRPP","GRpp",""))))))))))</f>
         <v>BSrf</v>
       </c>
       <c r="G2" s="16" t="str">
@@ -1499,7 +1502,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="16" t="str">
-        <f>F3&amp;"_"&amp;G3&amp;"_"&amp;H3&amp;"-"&amp;I3</f>
+        <f t="shared" si="0"/>
         <v>BSrf_1_3-8</v>
       </c>
       <c r="B3" t="s">
@@ -1515,25 +1518,25 @@
         <v>80</v>
       </c>
       <c r="F3" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
       <c r="G3" s="16" t="str">
-        <f t="shared" ref="G3:G66" si="1">RIGHT(LEFT(B3,5),1)</f>
+        <f t="shared" ref="G3:G66" si="2">RIGHT(LEFT(B3,5),1)</f>
         <v>1</v>
       </c>
       <c r="H3" s="16" t="str">
-        <f t="shared" ref="H3" si="2">IF(LEN(I3)=1,LEFT(RIGHT(B3,3),1),LEFT(RIGHT(B3,5),2))</f>
+        <f t="shared" ref="H3" si="3">IF(LEN(I3)=1,LEFT(RIGHT(B3,3),1),LEFT(RIGHT(B3,5),2))</f>
         <v>3</v>
       </c>
       <c r="I3" s="16" t="str">
-        <f t="shared" ref="I3:I66" si="3">IF(LEFT(RIGHT(B3,2),1)="-",RIGHT(B3,1),RIGHT(B3,2))</f>
+        <f t="shared" ref="I3:I66" si="4">IF(LEFT(RIGHT(B3,2),1)="-",RIGHT(B3,1),RIGHT(B3,2))</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="16" t="str">
-        <f>F4&amp;"_"&amp;G4&amp;"_"&amp;H4&amp;"-"&amp;I4</f>
+        <f t="shared" si="0"/>
         <v>BSrf_1_8-15</v>
       </c>
       <c r="B4" t="s">
@@ -1549,11 +1552,11 @@
         <v>50</v>
       </c>
       <c r="F4" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
       <c r="G4" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H4" s="16" t="str">
@@ -1561,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="I4" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="16" t="str">
-        <f>F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"-"&amp;I5</f>
+        <f t="shared" si="0"/>
         <v>BSrf_1_15-30</v>
       </c>
       <c r="B5" t="s">
@@ -1583,25 +1586,25 @@
         <v>50</v>
       </c>
       <c r="F5" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
       <c r="G5" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H5" s="16" t="str">
-        <f t="shared" ref="H5:H68" si="4">IF(LEN(I5)=1,LEFT(RIGHT(B5,3),1),IF(LEN(I5)=2,IF(LEFT(RIGHT(B5,5),1)=" ",LEFT(RIGHT(B5,4),1),LEFT(RIGHT(B5,5),2))))</f>
+        <f t="shared" ref="H5:H68" si="5">IF(LEN(I5)=1,LEFT(RIGHT(B5,3),1),IF(LEN(I5)=2,IF(LEFT(RIGHT(B5,5),1)=" ",LEFT(RIGHT(B5,4),1),LEFT(RIGHT(B5,5),2))))</f>
         <v>15</v>
       </c>
       <c r="I5" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="str">
-        <f>F6&amp;"_"&amp;G6&amp;"_"&amp;H6&amp;"-"&amp;I6</f>
+        <f t="shared" si="0"/>
         <v>BSrf_2_0-3</v>
       </c>
       <c r="B6" t="s">
@@ -1617,25 +1620,25 @@
         <v>75</v>
       </c>
       <c r="F6" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
       <c r="G6" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H6" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="str">
-        <f>F7&amp;"_"&amp;G7&amp;"_"&amp;H7&amp;"-"&amp;I7</f>
+        <f t="shared" si="0"/>
         <v>BSrf_2_3-8</v>
       </c>
       <c r="B7" t="s">
@@ -1651,195 +1654,195 @@
         <v>80</v>
       </c>
       <c r="F7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>BSrf</v>
+      </c>
+      <c r="G7" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
+        <v>BSrf_2_8-15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>1.8164530797850349</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.79967269018247533</v>
+      </c>
+      <c r="E8" s="9">
+        <v>50</v>
+      </c>
+      <c r="F8" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G8" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I8" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSrf_2_15-30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>1.7715283407121036</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.60267884300656782</v>
+      </c>
+      <c r="E9" s="9">
+        <v>50</v>
+      </c>
+      <c r="F9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H7" s="16" t="str">
+        <v>BSrf</v>
+      </c>
+      <c r="G9" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSrf_3_0-3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>26.130136986301373</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.57421573883863508</v>
+      </c>
+      <c r="E10" s="9">
+        <v>75</v>
+      </c>
+      <c r="F10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>BSrf</v>
+      </c>
+      <c r="G10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="str">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I7" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16" t="str">
-        <f>F8&amp;"_"&amp;G8&amp;"_"&amp;H8&amp;"-"&amp;I8</f>
-        <v>BSrf_2_8-15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>1.8164530797850349</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.79967269018247533</v>
-      </c>
-      <c r="E8" s="9">
-        <v>50</v>
-      </c>
-      <c r="F8" s="16" t="str">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16" t="str">
         <f t="shared" si="0"/>
+        <v>BSrf_3_3-8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>8.2466598150051382</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.89449157120184086</v>
+      </c>
+      <c r="E11" s="9">
+        <v>80</v>
+      </c>
+      <c r="F11" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H8" s="16" t="str">
+      <c r="G11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="16" t="str">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I8" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="16" t="str">
-        <f>F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;"-"&amp;I9</f>
-        <v>BSrf_2_15-30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>1.7715283407121036</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.60267884300656782</v>
-      </c>
-      <c r="E9" s="9">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSrf_3_8-15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>2.0248172373989992</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.79967269018247533</v>
+      </c>
+      <c r="E12" s="9">
         <v>50</v>
       </c>
-      <c r="F9" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F12" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H9" s="16" t="str">
+      <c r="G12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="16" t="str">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I9" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="16" t="str">
-        <f>F10&amp;"_"&amp;G10&amp;"_"&amp;H10&amp;"-"&amp;I10</f>
-        <v>BSrf_3_0-3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>26.130136986301373</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.57421573883863508</v>
-      </c>
-      <c r="E10" s="9">
-        <v>75</v>
-      </c>
-      <c r="F10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSrf</v>
-      </c>
-      <c r="G10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="16" t="str">
-        <f>F11&amp;"_"&amp;G11&amp;"_"&amp;H11&amp;"-"&amp;I11</f>
-        <v>BSrf_3_3-8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>8.2466598150051382</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.89449157120184086</v>
-      </c>
-      <c r="E11" s="9">
-        <v>80</v>
-      </c>
-      <c r="F11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSrf</v>
-      </c>
-      <c r="G11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H11" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I11" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="16" t="str">
-        <f>F12&amp;"_"&amp;G12&amp;"_"&amp;H12&amp;"-"&amp;I12</f>
-        <v>BSrf_3_8-15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12">
-        <v>2.0248172373989992</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.79967269018247533</v>
-      </c>
-      <c r="E12" s="9">
-        <v>50</v>
-      </c>
-      <c r="F12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSrf</v>
-      </c>
-      <c r="G12" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H12" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I12" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="16" t="str">
-        <f>F13&amp;"_"&amp;G13&amp;"_"&amp;H13&amp;"-"&amp;I13</f>
+        <f t="shared" si="0"/>
         <v>BSrf_3_15-30</v>
       </c>
       <c r="B13" t="s">
@@ -1855,25 +1858,25 @@
         <v>50</v>
       </c>
       <c r="F13" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
       <c r="G13" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H13" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I13" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="I13" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="16" t="str">
-        <f>F14&amp;"_"&amp;G14&amp;"_"&amp;H14&amp;"-"&amp;I14</f>
+        <f t="shared" si="0"/>
         <v>BSwf_1_0-10</v>
       </c>
       <c r="B14" t="s">
@@ -1889,25 +1892,25 @@
         <v>85</v>
       </c>
       <c r="F14" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
       <c r="G14" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H14" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="16" t="str">
-        <f>F15&amp;"_"&amp;G15&amp;"_"&amp;H15&amp;"-"&amp;I15</f>
+        <f t="shared" si="0"/>
         <v>BSwf_1_10-19</v>
       </c>
       <c r="B15" t="s">
@@ -1923,229 +1926,229 @@
         <v>80</v>
       </c>
       <c r="F15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>BSwf</v>
+      </c>
+      <c r="G15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
+        <v>BSwf_1_19-40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>1.7952254137340689</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.6429469638266202</v>
+      </c>
+      <c r="E16" s="9">
+        <v>65</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G16" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I16" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSwf_2_0-10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>6.805575109108827</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.59995515972336755</v>
+      </c>
+      <c r="E17" s="9">
+        <v>85</v>
+      </c>
+      <c r="F17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="16" t="str">
+        <v>BSwf</v>
+      </c>
+      <c r="G17" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="16" t="str">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="I15" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="16" t="str">
-        <f>F16&amp;"_"&amp;G16&amp;"_"&amp;H16&amp;"-"&amp;I16</f>
-        <v>BSwf_1_19-40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
-        <v>1.7952254137340689</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.6429469638266202</v>
-      </c>
-      <c r="E16" s="9">
-        <v>65</v>
-      </c>
-      <c r="F16" s="16" t="str">
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
+        <v>BSwf_2_10-19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>2.577637574483</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.51817560859169975</v>
+      </c>
+      <c r="E18" s="9">
+        <v>80</v>
+      </c>
+      <c r="F18" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="16" t="str">
+      <c r="G18" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="16" t="str">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="I16" s="16" t="str">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSwf_2_19-40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>1.7933086227077641</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.6429469638266202</v>
+      </c>
+      <c r="E19" s="9">
+        <v>65</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>BSwf</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I19" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="16" t="str">
-        <f>F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;"-"&amp;I17</f>
-        <v>BSwf_2_0-10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17">
-        <v>6.805575109108827</v>
-      </c>
-      <c r="D17" s="8">
+    <row r="20" spans="1:9">
+      <c r="A20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSwf_3_0-10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>11.70655100209393</v>
+      </c>
+      <c r="D20" s="8">
         <v>0.59995515972336755</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E20" s="9">
         <v>85</v>
       </c>
-      <c r="F17" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F20" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G17" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H17" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="16" t="str">
-        <f>F18&amp;"_"&amp;G18&amp;"_"&amp;H18&amp;"-"&amp;I18</f>
-        <v>BSwf_2_10-19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18">
-        <v>2.577637574483</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.51817560859169975</v>
-      </c>
-      <c r="E18" s="9">
-        <v>80</v>
-      </c>
-      <c r="F18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSwf</v>
-      </c>
-      <c r="G18" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H18" s="16" t="str">
+      <c r="G20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="16" t="str">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="I18" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="16" t="str">
-        <f>F19&amp;"_"&amp;G19&amp;"_"&amp;H19&amp;"-"&amp;I19</f>
-        <v>BSwf_2_19-40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19">
-        <v>1.7933086227077641</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.6429469638266202</v>
-      </c>
-      <c r="E19" s="9">
-        <v>65</v>
-      </c>
-      <c r="F19" s="16" t="str">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="16" t="str">
         <f t="shared" si="0"/>
+        <v>BSwf_3_10-19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>3.1462029808374736</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.51817560859169975</v>
+      </c>
+      <c r="E21" s="9">
+        <v>80</v>
+      </c>
+      <c r="F21" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G19" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H19" s="16" t="str">
+      <c r="G21" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="16" t="str">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="I19" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="16" t="str">
-        <f>F20&amp;"_"&amp;G20&amp;"_"&amp;H20&amp;"-"&amp;I20</f>
-        <v>BSwf_3_0-10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20">
-        <v>11.70655100209393</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.59995515972336755</v>
-      </c>
-      <c r="E20" s="9">
-        <v>85</v>
-      </c>
-      <c r="F20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSwf</v>
-      </c>
-      <c r="G20" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H20" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="16" t="str">
-        <f>F21&amp;"_"&amp;G21&amp;"_"&amp;H21&amp;"-"&amp;I21</f>
-        <v>BSwf_3_10-19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21">
-        <v>3.1462029808374736</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.51817560859169975</v>
-      </c>
-      <c r="E21" s="9">
-        <v>80</v>
-      </c>
-      <c r="F21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSwf</v>
-      </c>
-      <c r="G21" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H21" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="16" t="str">
-        <f>F22&amp;"_"&amp;G22&amp;"_"&amp;H22&amp;"-"&amp;I22</f>
+        <f t="shared" si="0"/>
         <v>BSwf_3_19-40</v>
       </c>
       <c r="B22" t="s">
@@ -2161,25 +2164,25 @@
         <v>65</v>
       </c>
       <c r="F22" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
       <c r="G22" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H22" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I22" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="I22" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="16" t="str">
-        <f>F23&amp;"_"&amp;G23&amp;"_"&amp;H23&amp;"-"&amp;I23</f>
+        <f t="shared" si="0"/>
         <v>BSpp_1_0-7</v>
       </c>
       <c r="B23" t="s">
@@ -2195,25 +2198,25 @@
         <v>90</v>
       </c>
       <c r="F23" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
       <c r="G23" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H23" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="16" t="str">
-        <f>F24&amp;"_"&amp;G24&amp;"_"&amp;H24&amp;"-"&amp;I24</f>
+        <f t="shared" si="0"/>
         <v>BSpp_1_7-18</v>
       </c>
       <c r="B24" t="s">
@@ -2229,331 +2232,331 @@
         <v>90</v>
       </c>
       <c r="F24" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>BSpp</v>
+      </c>
+      <c r="G24" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I24" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16" t="str">
         <f t="shared" si="0"/>
+        <v>BSpp_1_18-28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>1.7189675981802988</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.87881269534529594</v>
+      </c>
+      <c r="E25" s="9">
+        <v>90</v>
+      </c>
+      <c r="F25" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G25" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I25" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSpp_1_28-49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>0.80826240093924273</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.87881269534529594</v>
+      </c>
+      <c r="E26" s="9">
+        <v>90</v>
+      </c>
+      <c r="F26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="16" t="str">
+        <v>BSpp</v>
+      </c>
+      <c r="G26" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="I26" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSpp_2_0-7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>8.2646755921730186</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.63461672655048162</v>
+      </c>
+      <c r="E27" s="9">
+        <v>90</v>
+      </c>
+      <c r="F27" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>BSpp</v>
+      </c>
+      <c r="G27" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H27" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="16" t="str">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="I24" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="16" t="str">
-        <f>F25&amp;"_"&amp;G25&amp;"_"&amp;H25&amp;"-"&amp;I25</f>
-        <v>BSpp_1_18-28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25">
-        <v>1.7189675981802988</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.87881269534529594</v>
-      </c>
-      <c r="E25" s="9">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSpp_2_7-18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>3.4422403733955655</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.65339759684803023</v>
+      </c>
+      <c r="E28" s="9">
         <v>90</v>
       </c>
-      <c r="F25" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F28" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G25" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="16" t="str">
+      <c r="G28" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I28" s="16" t="str">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="I25" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="16" t="str">
-        <f>F26&amp;"_"&amp;G26&amp;"_"&amp;H26&amp;"-"&amp;I26</f>
-        <v>BSpp_1_28-49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26">
-        <v>0.80826240093924273</v>
-      </c>
-      <c r="D26" s="10">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSpp_2_18-28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>1.4140139751552794</v>
+      </c>
+      <c r="D29" s="8">
         <v>0.87881269534529594</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E29" s="9">
         <v>90</v>
       </c>
-      <c r="F26" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F29" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G26" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="16" t="str">
+      <c r="G29" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H29" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I29" s="16" t="str">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="I26" s="16" t="str">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSpp_2_28-49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>0.99121164097392311</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.87881269534529594</v>
+      </c>
+      <c r="E30" s="9">
+        <v>90</v>
+      </c>
+      <c r="F30" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>BSpp</v>
+      </c>
+      <c r="G30" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="I30" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="16" t="str">
-        <f>F27&amp;"_"&amp;G27&amp;"_"&amp;H27&amp;"-"&amp;I27</f>
-        <v>BSpp_2_0-7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27">
-        <v>8.2646755921730186</v>
-      </c>
-      <c r="D27" s="8">
+    <row r="31" spans="1:9">
+      <c r="A31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSpp_3_0-7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>6.969543147208122</v>
+      </c>
+      <c r="D31" s="8">
         <v>0.63461672655048162</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E31" s="9">
         <v>90</v>
       </c>
-      <c r="F27" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F31" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G27" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H27" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="16" t="str">
-        <f>F28&amp;"_"&amp;G28&amp;"_"&amp;H28&amp;"-"&amp;I28</f>
-        <v>BSpp_2_7-18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28">
-        <v>3.4422403733955655</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0.65339759684803023</v>
-      </c>
-      <c r="E28" s="9">
-        <v>90</v>
-      </c>
-      <c r="F28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSpp</v>
-      </c>
-      <c r="G28" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H28" s="16" t="str">
+      <c r="G31" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H31" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="16" t="str">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="I28" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="16" t="str">
-        <f>F29&amp;"_"&amp;G29&amp;"_"&amp;H29&amp;"-"&amp;I29</f>
-        <v>BSpp_2_18-28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29">
-        <v>1.4140139751552794</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.87881269534529594</v>
-      </c>
-      <c r="E29" s="9">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSpp_3_7-18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <v>4.2664952870608399</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.65339759684803023</v>
+      </c>
+      <c r="E32" s="9">
         <v>90</v>
       </c>
-      <c r="F29" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F32" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G29" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H29" s="16" t="str">
+      <c r="G32" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H32" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I32" s="16" t="str">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="I29" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="16" t="str">
-        <f>F30&amp;"_"&amp;G30&amp;"_"&amp;H30&amp;"-"&amp;I30</f>
-        <v>BSpp_2_28-49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <v>0.99121164097392311</v>
-      </c>
-      <c r="D30" s="10">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>BSpp_3_18-28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>2.0128852516106561</v>
+      </c>
+      <c r="D33" s="8">
         <v>0.87881269534529594</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E33" s="9">
         <v>90</v>
       </c>
-      <c r="F30" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F33" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G30" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H30" s="16" t="str">
+      <c r="G33" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I33" s="16" t="str">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="I30" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="16" t="str">
-        <f>F31&amp;"_"&amp;G31&amp;"_"&amp;H31&amp;"-"&amp;I31</f>
-        <v>BSpp_3_0-7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31">
-        <v>6.969543147208122</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.63461672655048162</v>
-      </c>
-      <c r="E31" s="9">
-        <v>90</v>
-      </c>
-      <c r="F31" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSpp</v>
-      </c>
-      <c r="G31" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H31" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="16" t="str">
-        <f>F32&amp;"_"&amp;G32&amp;"_"&amp;H32&amp;"-"&amp;I32</f>
-        <v>BSpp_3_7-18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32">
-        <v>4.2664952870608399</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.65339759684803023</v>
-      </c>
-      <c r="E32" s="9">
-        <v>90</v>
-      </c>
-      <c r="F32" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSpp</v>
-      </c>
-      <c r="G32" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H32" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="I32" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="16" t="str">
-        <f>F33&amp;"_"&amp;G33&amp;"_"&amp;H33&amp;"-"&amp;I33</f>
-        <v>BSpp_3_18-28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33">
-        <v>2.0128852516106561</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0.87881269534529594</v>
-      </c>
-      <c r="E33" s="9">
-        <v>90</v>
-      </c>
-      <c r="F33" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>BSpp</v>
-      </c>
-      <c r="G33" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H33" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="I33" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="16" t="str">
-        <f>F34&amp;"_"&amp;G34&amp;"_"&amp;H34&amp;"-"&amp;I34</f>
+        <f t="shared" ref="A34:A65" si="6">F34&amp;"_"&amp;G34&amp;"_"&amp;H34&amp;"-"&amp;I34</f>
         <v>BSpp_3_28-49</v>
       </c>
       <c r="B34" t="s">
@@ -2569,25 +2572,25 @@
         <v>90</v>
       </c>
       <c r="F34" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
       <c r="G34" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H34" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="I34" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="I34" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="16" t="str">
-        <f>F35&amp;"_"&amp;G35&amp;"_"&amp;H35&amp;"-"&amp;I35</f>
+        <f t="shared" si="6"/>
         <v>_1_0-5</v>
       </c>
       <c r="B35" t="s">
@@ -2603,25 +2606,25 @@
         <v>85</v>
       </c>
       <c r="F35" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G35" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H35" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="16" t="str">
-        <f>F36&amp;"_"&amp;G36&amp;"_"&amp;H36&amp;"-"&amp;I36</f>
+        <f t="shared" si="6"/>
         <v>_1_5-16</v>
       </c>
       <c r="B36" t="s">
@@ -2637,331 +2640,331 @@
         <v>80</v>
       </c>
       <c r="F36" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G36" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I36" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_1_16-27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>0.45274876358150812</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1.3120419194281472</v>
+      </c>
+      <c r="E37" s="9">
+        <v>60</v>
+      </c>
+      <c r="F37" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="16" t="str">
+        <v/>
+      </c>
+      <c r="G37" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I37" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_1_27-44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <v>0.41295261798163152</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.3120419194281472</v>
+      </c>
+      <c r="E38" s="9">
+        <v>95</v>
+      </c>
+      <c r="F38" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="I38" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_2_0-5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>2.2854082477238422</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.98422142448767658</v>
+      </c>
+      <c r="E39" s="9">
+        <v>85</v>
+      </c>
+      <c r="F39" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="16" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I36" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="16" t="str">
-        <f>F37&amp;"_"&amp;G37&amp;"_"&amp;H37&amp;"-"&amp;I37</f>
-        <v>_1_16-27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37">
-        <v>0.45274876358150812</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1.3120419194281472</v>
-      </c>
-      <c r="E37" s="9">
-        <v>60</v>
-      </c>
-      <c r="F37" s="16" t="str">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_2_5-16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>0.68595779778678945</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1.3652495160557108</v>
+      </c>
+      <c r="E40" s="9">
+        <v>80</v>
+      </c>
+      <c r="F40" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H37" s="16" t="str">
+      <c r="G40" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I40" s="16" t="str">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I37" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="16" t="str">
-        <f>F38&amp;"_"&amp;G38&amp;"_"&amp;H38&amp;"-"&amp;I38</f>
-        <v>_1_27-44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38">
-        <v>0.41295261798163152</v>
-      </c>
-      <c r="D38" s="10">
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_2_16-27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41">
+        <v>0.58482393664256327</v>
+      </c>
+      <c r="D41" s="8">
         <v>1.3120419194281472</v>
       </c>
-      <c r="E38" s="9">
-        <v>95</v>
-      </c>
-      <c r="F38" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="E41" s="9">
+        <v>60</v>
+      </c>
+      <c r="F41" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="16" t="str">
+      <c r="G41" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I41" s="16" t="str">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="I38" s="16" t="str">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_2_27-44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42">
+        <v>0.40989876265466818</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1.3120419194281472</v>
+      </c>
+      <c r="E42" s="9">
+        <v>95</v>
+      </c>
+      <c r="F42" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H42" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="I42" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="16" t="str">
-        <f>F39&amp;"_"&amp;G39&amp;"_"&amp;H39&amp;"-"&amp;I39</f>
-        <v>_2_0-5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39">
-        <v>2.2854082477238422</v>
-      </c>
-      <c r="D39" s="8">
+    <row r="43" spans="1:10">
+      <c r="A43" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_3_0-5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>0.38387177708576231</v>
+      </c>
+      <c r="D43" s="8">
         <v>0.98422142448767658</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E43" s="9">
         <v>85</v>
       </c>
-      <c r="F39" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="F43" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H39" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="16" t="str">
-        <f>F40&amp;"_"&amp;G40&amp;"_"&amp;H40&amp;"-"&amp;I40</f>
-        <v>_2_5-16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40">
-        <v>0.68595779778678945</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1.3652495160557108</v>
-      </c>
-      <c r="E40" s="9">
-        <v>80</v>
-      </c>
-      <c r="F40" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G40" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H40" s="16" t="str">
+      <c r="G43" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H43" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I40" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="16" t="str">
-        <f>F41&amp;"_"&amp;G41&amp;"_"&amp;H41&amp;"-"&amp;I41</f>
-        <v>_2_16-27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41">
-        <v>0.58482393664256327</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1.3120419194281472</v>
-      </c>
-      <c r="E41" s="9">
-        <v>60</v>
-      </c>
-      <c r="F41" s="16" t="str">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_3_5-16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44">
+        <v>0.65829331363132615</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1.3652495160557108</v>
+      </c>
+      <c r="E44" s="9">
+        <v>80</v>
+      </c>
+      <c r="F44" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H41" s="16" t="str">
+      <c r="G44" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H44" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I44" s="16" t="str">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I41" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="16" t="str">
-        <f>F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"-"&amp;I42</f>
-        <v>_2_27-44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42">
-        <v>0.40989876265466818</v>
-      </c>
-      <c r="D42" s="10">
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_3_16-27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>0.49355178846621783</v>
+      </c>
+      <c r="D45" s="8">
         <v>1.3120419194281472</v>
       </c>
-      <c r="E42" s="9">
-        <v>95</v>
-      </c>
-      <c r="F42" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="E45" s="9">
+        <v>60</v>
+      </c>
+      <c r="F45" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H42" s="16" t="str">
+      <c r="G45" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H45" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I45" s="16" t="str">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="I42" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="16" t="str">
-        <f>F43&amp;"_"&amp;G43&amp;"_"&amp;H43&amp;"-"&amp;I43</f>
-        <v>_3_0-5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43">
-        <v>0.38387177708576231</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.98422142448767658</v>
-      </c>
-      <c r="E43" s="9">
-        <v>85</v>
-      </c>
-      <c r="F43" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G43" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H43" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="16" t="str">
-        <f>F44&amp;"_"&amp;G44&amp;"_"&amp;H44&amp;"-"&amp;I44</f>
-        <v>_3_5-16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44">
-        <v>0.65829331363132615</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1.3652495160557108</v>
-      </c>
-      <c r="E44" s="9">
-        <v>80</v>
-      </c>
-      <c r="F44" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G44" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H44" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I44" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="16" t="str">
-        <f>F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"-"&amp;I45</f>
-        <v>_3_16-27</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45">
-        <v>0.49355178846621783</v>
-      </c>
-      <c r="D45" s="8">
-        <v>1.3120419194281472</v>
-      </c>
-      <c r="E45" s="9">
-        <v>60</v>
-      </c>
-      <c r="F45" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G45" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H45" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="I45" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="16" t="str">
-        <f>F46&amp;"_"&amp;G46&amp;"_"&amp;H46&amp;"-"&amp;I46</f>
+        <f t="shared" si="6"/>
         <v>_3_27-44</v>
       </c>
       <c r="B46" t="s">
@@ -2977,29 +2980,29 @@
         <v>95</v>
       </c>
       <c r="F46" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G46" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H46" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="I46" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="I46" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="16" t="str">
-        <f>F47&amp;"_"&amp;G47&amp;"_"&amp;H47&amp;"-"&amp;I47</f>
+        <f t="shared" si="6"/>
         <v>ANrf_1_0-11</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C47">
         <v>13.017098731384444</v>
@@ -3011,30 +3014,30 @@
         <v>90</v>
       </c>
       <c r="F47" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ANrf</v>
       </c>
       <c r="G47" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H47" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="J47" s="17"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="16" t="str">
-        <f>F48&amp;"_"&amp;G48&amp;"_"&amp;H48&amp;"-"&amp;I48</f>
+        <f t="shared" si="6"/>
         <v>ANrf_1_11-32</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C48">
         <v>2.1291650585359578</v>
@@ -3046,113 +3049,113 @@
         <v>60</v>
       </c>
       <c r="F48" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ANrf</v>
       </c>
       <c r="G48" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I48" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>ANrf_2_0-11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H48" s="16" t="str">
+        <v>ANrf</v>
+      </c>
+      <c r="G49" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H49" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="16" t="str">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="I48" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="16" t="str">
-        <f>F49&amp;"_"&amp;G49&amp;"_"&amp;H49&amp;"-"&amp;I49</f>
-        <v>ANrf_2_0-11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>ANrf</v>
-      </c>
-      <c r="G49" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H49" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="16" t="str">
-        <f>F50&amp;"_"&amp;G50&amp;"_"&amp;H50&amp;"-"&amp;I50</f>
+        <f t="shared" si="6"/>
         <v>ANrf_2_11-32</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F50" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ANrf</v>
       </c>
       <c r="G50" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H50" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I50" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>ANrf_3_0-11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51">
+        <v>6.4790513833992094</v>
+      </c>
+      <c r="D51">
+        <v>0.47873982641579416</v>
+      </c>
+      <c r="E51">
+        <v>90</v>
+      </c>
+      <c r="F51" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H50" s="16" t="str">
+        <v>ANrf</v>
+      </c>
+      <c r="G51" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="16" t="str">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="I50" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="16" t="str">
-        <f>F51&amp;"_"&amp;G51&amp;"_"&amp;H51&amp;"-"&amp;I51</f>
-        <v>ANrf_3_0-11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51">
-        <v>6.4790513833992094</v>
-      </c>
-      <c r="D51">
-        <v>0.47873982641579416</v>
-      </c>
-      <c r="E51">
-        <v>90</v>
-      </c>
-      <c r="F51" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>ANrf</v>
-      </c>
-      <c r="G51" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H51" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="16" t="str">
-        <f>F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"-"&amp;I52</f>
+        <f t="shared" si="6"/>
         <v>ANrf_3_11-32</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C52">
         <v>3.382077240344957</v>
@@ -3168,25 +3171,25 @@
         <v>ANrf</v>
       </c>
       <c r="G52" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H52" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="I52" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="16" t="str">
-        <f>F53&amp;"_"&amp;G53&amp;"_"&amp;H53&amp;"-"&amp;I53</f>
+        <f t="shared" si="6"/>
         <v>ANpp_1_0-6</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C53">
         <v>10.440759001942327</v>
@@ -3198,29 +3201,29 @@
         <v>100</v>
       </c>
       <c r="F53" s="16" t="str">
-        <f t="shared" ref="F53:F108" si="5">IF(LEFT(B53,4)="BSRF","BSrf",IF(LEFT(B53,4)="BSSP","BSwf",IF(LEFT(B53,4)="BSPP","BSpp",IF(LEFT(B53,4)="BSOK","",IF(LEFT(B53,4)="ANRF","ANrf",IF(LEFT(B53,4)="ANSP","ANwf",IF(LEFT(B53,4)="ANPP","ANpp",IF(LEFT(B53,4)="GRRF","GRrf",IF(LEFT(B53,4)="GRSP","GRwf",IF(LEFT(B53,4)="GRPP","GRpp",""))))))))))</f>
+        <f t="shared" ref="F53:F108" si="7">IF(LEFT(B53,4)="BSRF","BSrf",IF(LEFT(B53,4)="BSSP","BSwf",IF(LEFT(B53,4)="BSPP","BSpp",IF(LEFT(B53,4)="BSOK","",IF(LEFT(B53,4)="ANRF","ANrf",IF(LEFT(B53,4)="ANSP","ANwf",IF(LEFT(B53,4)="ANPP","ANpp",IF(LEFT(B53,4)="GRRF","GRrf",IF(LEFT(B53,4)="GRSP","GRwf",IF(LEFT(B53,4)="GRPP","GRpp",""))))))))))</f>
         <v>ANpp</v>
       </c>
       <c r="G53" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H53" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="16" t="str">
-        <f>F54&amp;"_"&amp;G54&amp;"_"&amp;H54&amp;"-"&amp;I54</f>
+        <f t="shared" si="6"/>
         <v>ANpp_1_6-13</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C54">
         <v>5.2597960938459645</v>
@@ -3232,233 +3235,233 @@
         <v>100</v>
       </c>
       <c r="F54" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>ANpp</v>
+      </c>
+      <c r="G54" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="16" t="str">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I54" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>ANpp_1_13-33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55">
+        <v>2.2701906681134707</v>
+      </c>
+      <c r="D55">
+        <v>0.88135200358061516</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>ANpp</v>
       </c>
-      <c r="G54" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H54" s="16" t="str">
+      <c r="G55" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="I55" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>ANpp_2_0-6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56">
+        <v>8.4087080471685898</v>
+      </c>
+      <c r="D56">
+        <v>0.5901217427500689</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>ANpp</v>
+      </c>
+      <c r="G56" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H56" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="16" t="str">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I54" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="16" t="str">
-        <f>F55&amp;"_"&amp;G55&amp;"_"&amp;H55&amp;"-"&amp;I55</f>
-        <v>ANpp_1_13-33</v>
-      </c>
-      <c r="B55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55">
-        <v>2.2701906681134707</v>
-      </c>
-      <c r="D55">
-        <v>0.88135200358061516</v>
-      </c>
-      <c r="E55">
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>ANpp_2_6-13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57">
+        <v>4.3605160967054992</v>
+      </c>
+      <c r="D57">
+        <v>0.84400618739109134</v>
+      </c>
+      <c r="E57">
         <v>100</v>
       </c>
-      <c r="F55" s="16" t="str">
+      <c r="F57" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>ANpp</v>
+      </c>
+      <c r="G57" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H57" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>ANpp</v>
-      </c>
-      <c r="G55" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H55" s="16" t="str">
+        <v>6</v>
+      </c>
+      <c r="I57" s="16" t="str">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="I55" s="16" t="str">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>ANpp_2_13-33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58">
+        <v>2.3701458876594543</v>
+      </c>
+      <c r="D58">
+        <v>0.88135200358061516</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>ANpp</v>
+      </c>
+      <c r="G58" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H58" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="I58" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="16" t="str">
-        <f>F56&amp;"_"&amp;G56&amp;"_"&amp;H56&amp;"-"&amp;I56</f>
-        <v>ANpp_2_0-6</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>ANpp_3_0-6</v>
+      </c>
+      <c r="B59" t="s">
         <v>282</v>
       </c>
-      <c r="C56">
-        <v>8.4087080471685898</v>
-      </c>
-      <c r="D56">
+      <c r="C59">
+        <v>10.616909942164694</v>
+      </c>
+      <c r="D59">
         <v>0.5901217427500689</v>
       </c>
-      <c r="E56">
+      <c r="E59">
         <v>100</v>
       </c>
-      <c r="F56" s="16" t="str">
+      <c r="F59" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>ANpp</v>
+      </c>
+      <c r="G59" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H59" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>ANpp</v>
-      </c>
-      <c r="G56" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H56" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="16" t="str">
-        <f>F57&amp;"_"&amp;G57&amp;"_"&amp;H57&amp;"-"&amp;I57</f>
-        <v>ANpp_2_6-13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57">
-        <v>4.3605160967054992</v>
-      </c>
-      <c r="D57">
-        <v>0.84400618739109134</v>
-      </c>
-      <c r="E57">
-        <v>100</v>
-      </c>
-      <c r="F57" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>ANpp</v>
-      </c>
-      <c r="G57" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H57" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="I59" s="16" t="str">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I57" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="16" t="str">
-        <f>F58&amp;"_"&amp;G58&amp;"_"&amp;H58&amp;"-"&amp;I58</f>
-        <v>ANpp_2_13-33</v>
-      </c>
-      <c r="B58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58">
-        <v>2.3701458876594543</v>
-      </c>
-      <c r="D58">
-        <v>0.88135200358061516</v>
-      </c>
-      <c r="E58">
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>ANpp_3_6-13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60">
+        <v>6.73103106820151</v>
+      </c>
+      <c r="D60">
+        <v>0.84400618739109134</v>
+      </c>
+      <c r="E60">
         <v>100</v>
       </c>
-      <c r="F58" s="16" t="str">
+      <c r="F60" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>ANpp</v>
+      </c>
+      <c r="G60" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H60" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>ANpp</v>
-      </c>
-      <c r="G58" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H58" s="16" t="str">
+        <v>6</v>
+      </c>
+      <c r="I60" s="16" t="str">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="I58" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="16" t="str">
-        <f>F59&amp;"_"&amp;G59&amp;"_"&amp;H59&amp;"-"&amp;I59</f>
-        <v>ANpp_3_0-6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>285</v>
-      </c>
-      <c r="C59">
-        <v>10.616909942164694</v>
-      </c>
-      <c r="D59">
-        <v>0.5901217427500689</v>
-      </c>
-      <c r="E59">
-        <v>100</v>
-      </c>
-      <c r="F59" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>ANpp</v>
-      </c>
-      <c r="G59" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H59" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="16" t="str">
-        <f>F60&amp;"_"&amp;G60&amp;"_"&amp;H60&amp;"-"&amp;I60</f>
-        <v>ANpp_3_6-13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>286</v>
-      </c>
-      <c r="C60">
-        <v>6.73103106820151</v>
-      </c>
-      <c r="D60">
-        <v>0.84400618739109134</v>
-      </c>
-      <c r="E60">
-        <v>100</v>
-      </c>
-      <c r="F60" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>ANpp</v>
-      </c>
-      <c r="G60" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H60" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I60" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="16" t="str">
-        <f>F61&amp;"_"&amp;G61&amp;"_"&amp;H61&amp;"-"&amp;I61</f>
+        <f t="shared" si="6"/>
         <v>ANpp_3_13-33</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C61">
         <v>3.9347724073205068</v>
@@ -3470,25 +3473,25 @@
         <v>100</v>
       </c>
       <c r="F61" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>ANpp</v>
+      </c>
+      <c r="G61" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H61" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>ANpp</v>
-      </c>
-      <c r="G61" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H61" s="16" t="str">
+        <v>13</v>
+      </c>
+      <c r="I61" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="I61" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="16" t="str">
-        <f>F62&amp;"_"&amp;G62&amp;"_"&amp;H62&amp;"-"&amp;I62</f>
+        <f t="shared" si="6"/>
         <v>_1_0-12</v>
       </c>
       <c r="B62" t="s">
@@ -3504,25 +3507,25 @@
         <v>80</v>
       </c>
       <c r="F62" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G62" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G62" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H62" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="I62" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="16" t="str">
-        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="16" t="str">
-        <f>F63&amp;"_"&amp;G63&amp;"_"&amp;H63&amp;"-"&amp;I63</f>
+        <f t="shared" si="6"/>
         <v>_1_12-29</v>
       </c>
       <c r="B63" t="s">
@@ -3538,127 +3541,127 @@
         <v>40</v>
       </c>
       <c r="F63" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G63" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="16" t="str">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I63" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_2_0-15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64">
+        <v>2.9688641471407959</v>
+      </c>
+      <c r="D64">
+        <v>0.9</v>
+      </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
+      <c r="F64" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G63" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H63" s="16" t="str">
+      <c r="G64" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H64" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>_2_15-25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65">
+        <v>1.5839168644742587</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G65" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H65" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I65" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="16" t="str">
+        <f t="shared" ref="A66:A97" si="8">F66&amp;"_"&amp;G66&amp;"_"&amp;H66&amp;"-"&amp;I66</f>
+        <v>_3_0-12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66">
+        <v>2.6377935450391012</v>
+      </c>
+      <c r="D66">
+        <v>0.9</v>
+      </c>
+      <c r="E66">
+        <v>80</v>
+      </c>
+      <c r="F66" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G66" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H66" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="16" t="str">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="I63" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="16" t="str">
-        <f>F64&amp;"_"&amp;G64&amp;"_"&amp;H64&amp;"-"&amp;I64</f>
-        <v>_2_0-15</v>
-      </c>
-      <c r="B64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64">
-        <v>2.9688641471407959</v>
-      </c>
-      <c r="D64">
-        <v>0.9</v>
-      </c>
-      <c r="E64">
-        <v>80</v>
-      </c>
-      <c r="F64" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G64" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H64" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="16" t="str">
-        <f>F65&amp;"_"&amp;G65&amp;"_"&amp;H65&amp;"-"&amp;I65</f>
-        <v>_2_15-25</v>
-      </c>
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65">
-        <v>1.5839168644742587</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>40</v>
-      </c>
-      <c r="F65" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G65" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H65" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="I65" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="16" t="str">
-        <f>F66&amp;"_"&amp;G66&amp;"_"&amp;H66&amp;"-"&amp;I66</f>
-        <v>_3_0-12</v>
-      </c>
-      <c r="B66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66">
-        <v>2.6377935450391012</v>
-      </c>
-      <c r="D66">
-        <v>0.9</v>
-      </c>
-      <c r="E66">
-        <v>80</v>
-      </c>
-      <c r="F66" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G66" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H66" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="16" t="str">
-        <f>F67&amp;"_"&amp;G67&amp;"_"&amp;H67&amp;"-"&amp;I67</f>
+        <f t="shared" si="8"/>
         <v>_3_12-29</v>
       </c>
       <c r="B67" t="s">
@@ -3674,29 +3677,29 @@
         <v>40</v>
       </c>
       <c r="F67" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G67" s="16" t="str">
+        <f t="shared" ref="G67:G109" si="9">RIGHT(LEFT(B67,5),1)</f>
+        <v>3</v>
+      </c>
+      <c r="H67" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G67" s="16" t="str">
-        <f t="shared" ref="G67:G110" si="6">RIGHT(LEFT(B67,5),1)</f>
-        <v>3</v>
-      </c>
-      <c r="H67" s="16" t="str">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I67" s="16" t="str">
-        <f t="shared" ref="I67:I110" si="7">IF(LEFT(RIGHT(B67,2),1)="-",RIGHT(B67,1),RIGHT(B67,2))</f>
+        <f t="shared" ref="I67:I109" si="10">IF(LEFT(RIGHT(B67,2),1)="-",RIGHT(B67,1),RIGHT(B67,2))</f>
         <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="16" t="str">
-        <f>F68&amp;"_"&amp;G68&amp;"_"&amp;H68&amp;"-"&amp;I68</f>
+        <f t="shared" si="8"/>
         <v>ANwf_1_0-11</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C68">
         <v>8.125</v>
@@ -3708,29 +3711,29 @@
         <v>70</v>
       </c>
       <c r="F68" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>ANwf</v>
+      </c>
+      <c r="G68" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>ANwf</v>
-      </c>
-      <c r="G68" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H68" s="16" t="str">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I68" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="16" t="str">
-        <f>F69&amp;"_"&amp;G69&amp;"_"&amp;H69&amp;"-"&amp;I69</f>
+        <f t="shared" si="8"/>
         <v>ANwf_1_11-35</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C69">
         <v>8.5333592686247801</v>
@@ -3742,29 +3745,29 @@
         <v>40</v>
       </c>
       <c r="F69" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ANwf</v>
       </c>
       <c r="G69" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H69" s="16" t="str">
-        <f t="shared" ref="H69:H110" si="8">IF(LEN(I69)=1,LEFT(RIGHT(B69,3),1),IF(LEN(I69)=2,IF(LEFT(RIGHT(B69,5),1)=" ",LEFT(RIGHT(B69,4),1),LEFT(RIGHT(B69,5),2))))</f>
+        <f t="shared" ref="H69:H109" si="11">IF(LEN(I69)=1,LEFT(RIGHT(B69,3),1),IF(LEN(I69)=2,IF(LEFT(RIGHT(B69,5),1)=" ",LEFT(RIGHT(B69,4),1),LEFT(RIGHT(B69,5),2))))</f>
         <v>11</v>
       </c>
       <c r="I69" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="16" t="str">
-        <f>F70&amp;"_"&amp;G70&amp;"_"&amp;H70&amp;"-"&amp;I70</f>
+        <f t="shared" si="8"/>
         <v>ANwf_2_0-11</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C70">
         <v>8.2012660991049984</v>
@@ -3776,29 +3779,29 @@
         <v>70</v>
       </c>
       <c r="F70" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ANwf</v>
       </c>
       <c r="G70" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H70" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I70" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="16" t="str">
-        <f>F71&amp;"_"&amp;G71&amp;"_"&amp;H71&amp;"-"&amp;I71</f>
+        <f t="shared" si="8"/>
         <v>ANwf_2_11-35</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C71">
         <v>7.0535221629575133</v>
@@ -3810,29 +3813,29 @@
         <v>40</v>
       </c>
       <c r="F71" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ANwf</v>
       </c>
       <c r="G71" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H71" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="I71" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="16" t="str">
-        <f>F72&amp;"_"&amp;G72&amp;"_"&amp;H72&amp;"-"&amp;I72</f>
+        <f t="shared" si="8"/>
         <v>ANwf_3_0-11</v>
       </c>
       <c r="B72" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C72">
         <v>8.8703015282940942</v>
@@ -3844,29 +3847,29 @@
         <v>70</v>
       </c>
       <c r="F72" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ANwf</v>
       </c>
       <c r="G72" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H72" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I72" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="16" t="str">
-        <f>F73&amp;"_"&amp;G73&amp;"_"&amp;H73&amp;"-"&amp;I73</f>
+        <f t="shared" si="8"/>
         <v>ANwf_3_11-35</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C73">
         <v>8.3076140410378159</v>
@@ -3878,29 +3881,29 @@
         <v>40</v>
       </c>
       <c r="F73" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ANwf</v>
       </c>
       <c r="G73" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H73" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="I73" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="16" t="str">
-        <f>F74&amp;"_"&amp;G74&amp;"_"&amp;H74&amp;"-"&amp;I74</f>
+        <f t="shared" si="8"/>
         <v>GRrf_1_0-3</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C74">
         <v>4.1266418349343263</v>
@@ -3912,29 +3915,29 @@
         <v>100</v>
       </c>
       <c r="F74" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G74" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H74" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I74" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="16" t="str">
-        <f>F75&amp;"_"&amp;G75&amp;"_"&amp;H75&amp;"-"&amp;I75</f>
+        <f t="shared" si="8"/>
         <v>GRrf_1_3-8</v>
       </c>
       <c r="B75" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C75">
         <v>2.3244073748902547</v>
@@ -3946,29 +3949,29 @@
         <v>100</v>
       </c>
       <c r="F75" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G75" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H75" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I75" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="16" t="str">
-        <f>F76&amp;"_"&amp;G76&amp;"_"&amp;H76&amp;"-"&amp;I76</f>
+        <f t="shared" si="8"/>
         <v>GRrf_1_8-27</v>
       </c>
       <c r="B76" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C76">
         <v>0.96869934956953718</v>
@@ -3980,29 +3983,29 @@
         <v>70</v>
       </c>
       <c r="F76" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G76" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H76" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="I76" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="16" t="str">
-        <f>F77&amp;"_"&amp;G77&amp;"_"&amp;H77&amp;"-"&amp;I77</f>
+        <f t="shared" si="8"/>
         <v>GRrf_2_0-3</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C77">
         <v>12.763437594898269</v>
@@ -4014,29 +4017,29 @@
         <v>100</v>
       </c>
       <c r="F77" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G77" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H77" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I77" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="16" t="str">
-        <f>F78&amp;"_"&amp;G78&amp;"_"&amp;H78&amp;"-"&amp;I78</f>
+        <f t="shared" si="8"/>
         <v>GRrf_2_3-8</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C78">
         <v>2.2085748722952423</v>
@@ -4048,29 +4051,29 @@
         <v>100</v>
       </c>
       <c r="F78" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G78" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H78" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I78" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="16" t="str">
-        <f>F79&amp;"_"&amp;G79&amp;"_"&amp;H79&amp;"-"&amp;I79</f>
+        <f t="shared" si="8"/>
         <v>GRrf_2_8-27</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C79">
         <v>1.2929629806088905</v>
@@ -4082,29 +4085,29 @@
         <v>70</v>
       </c>
       <c r="F79" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G79" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H79" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="I79" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="16" t="str">
-        <f>F80&amp;"_"&amp;G80&amp;"_"&amp;H80&amp;"-"&amp;I80</f>
+        <f t="shared" si="8"/>
         <v>GRrf_3_0-3</v>
       </c>
       <c r="B80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C80">
         <v>8.4450397149162981</v>
@@ -4116,29 +4119,29 @@
         <v>100</v>
       </c>
       <c r="F80" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G80" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H80" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I80" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="16" t="str">
-        <f>F81&amp;"_"&amp;G81&amp;"_"&amp;H81&amp;"-"&amp;I81</f>
+        <f t="shared" si="8"/>
         <v>GRrf_3_3-8</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81">
         <v>2.0991981307418617</v>
@@ -4150,29 +4153,29 @@
         <v>100</v>
       </c>
       <c r="F81" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G81" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H81" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I81" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="16" t="str">
-        <f>F82&amp;"_"&amp;G82&amp;"_"&amp;H82&amp;"-"&amp;I82</f>
+        <f t="shared" si="8"/>
         <v>GRrf_3_8-27</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C82">
         <v>1.2024953391653521</v>
@@ -4184,29 +4187,29 @@
         <v>70</v>
       </c>
       <c r="F82" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRrf</v>
       </c>
       <c r="G82" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H82" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="I82" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="16" t="str">
-        <f>F83&amp;"_"&amp;G83&amp;"_"&amp;H83&amp;"-"&amp;I83</f>
+        <f t="shared" si="8"/>
         <v>GRpp_1_0-7</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C83">
         <v>6.9951534733441036</v>
@@ -4218,29 +4221,29 @@
         <v>100</v>
       </c>
       <c r="F83" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G83" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H83" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I83" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="16" t="str">
-        <f>F84&amp;"_"&amp;G84&amp;"_"&amp;H84&amp;"-"&amp;I84</f>
+        <f t="shared" si="8"/>
         <v>GRpp_1_7-15</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C84">
         <v>2.8471419005296159</v>
@@ -4252,29 +4255,29 @@
         <v>100</v>
       </c>
       <c r="F84" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G84" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H84" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="I84" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="16" t="str">
-        <f>F85&amp;"_"&amp;G85&amp;"_"&amp;H85&amp;"-"&amp;I85</f>
+        <f t="shared" si="8"/>
         <v>GRpp_1_15-27</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C85">
         <v>0.69091192578300098</v>
@@ -4286,29 +4289,29 @@
         <v>100</v>
       </c>
       <c r="F85" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G85" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H85" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I85" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="16" t="str">
-        <f>F86&amp;"_"&amp;G86&amp;"_"&amp;H86&amp;"-"&amp;I86</f>
+        <f t="shared" si="8"/>
         <v>GRpp_2_0-7</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C86">
         <v>6.5435815792870642</v>
@@ -4320,29 +4323,29 @@
         <v>100</v>
       </c>
       <c r="F86" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G86" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H86" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I86" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="16" t="str">
-        <f>F87&amp;"_"&amp;G87&amp;"_"&amp;H87&amp;"-"&amp;I87</f>
+        <f t="shared" si="8"/>
         <v>GRpp_2_7-15</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C87">
         <v>5.4922750681611623</v>
@@ -4354,29 +4357,29 @@
         <v>100</v>
       </c>
       <c r="F87" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G87" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H87" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="I87" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="16" t="str">
-        <f>F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;"-"&amp;I88</f>
+        <f t="shared" si="8"/>
         <v>GRpp_2_15-27</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C88">
         <v>1.583143507972665</v>
@@ -4388,29 +4391,29 @@
         <v>100</v>
       </c>
       <c r="F88" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G88" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H88" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I88" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="16" t="str">
-        <f>F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;"-"&amp;I89</f>
+        <f t="shared" si="8"/>
         <v>GRpp_3_0-7</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C89">
         <v>6.0920096852300247</v>
@@ -4422,29 +4425,29 @@
         <v>100</v>
       </c>
       <c r="F89" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G89" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H89" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I89" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="16" t="str">
-        <f>F90&amp;"_"&amp;G90&amp;"_"&amp;H90&amp;"-"&amp;I90</f>
+        <f t="shared" si="8"/>
         <v>GRpp_3_7-15</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C90">
         <v>1.9619308787353309</v>
@@ -4456,29 +4459,29 @@
         <v>100</v>
       </c>
       <c r="F90" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G90" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H90" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="I90" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="16" t="str">
-        <f>F91&amp;"_"&amp;G91&amp;"_"&amp;H91&amp;"-"&amp;I91</f>
+        <f t="shared" si="8"/>
         <v>GRpp_3_15-27</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C91">
         <v>0.77857691501990089</v>
@@ -4490,25 +4493,25 @@
         <v>100</v>
       </c>
       <c r="F91" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRpp</v>
       </c>
       <c r="G91" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H91" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I91" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="16" t="str">
-        <f>F92&amp;"_"&amp;G92&amp;"_"&amp;H92&amp;"-"&amp;I92</f>
+        <f t="shared" si="8"/>
         <v>_1_1-5</v>
       </c>
       <c r="B92" t="s">
@@ -4524,25 +4527,25 @@
         <v>85</v>
       </c>
       <c r="F92" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G92" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H92" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I92" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="16" t="str">
-        <f>F93&amp;"_"&amp;G93&amp;"_"&amp;H93&amp;"-"&amp;I93</f>
+        <f t="shared" si="8"/>
         <v>_1_K1-13</v>
       </c>
       <c r="B93" t="s">
@@ -4558,25 +4561,25 @@
         <v>90</v>
       </c>
       <c r="F93" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G93" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H93" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>K1</v>
       </c>
       <c r="I93" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="16" t="str">
-        <f>F94&amp;"_"&amp;G94&amp;"_"&amp;H94&amp;"-"&amp;I94</f>
+        <f t="shared" si="8"/>
         <v>_1_K1-26</v>
       </c>
       <c r="B94" t="s">
@@ -4592,25 +4595,25 @@
         <v>90</v>
       </c>
       <c r="F94" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G94" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H94" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>K1</v>
       </c>
       <c r="I94" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="16" t="str">
-        <f>F95&amp;"_"&amp;G95&amp;"_"&amp;H95&amp;"-"&amp;I95</f>
+        <f t="shared" si="8"/>
         <v>_2_2-5</v>
       </c>
       <c r="B95" t="s">
@@ -4626,25 +4629,25 @@
         <v>85</v>
       </c>
       <c r="F95" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G95" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H95" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I95" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="16" t="str">
-        <f>F96&amp;"_"&amp;G96&amp;"_"&amp;H96&amp;"-"&amp;I96</f>
+        <f t="shared" si="8"/>
         <v>_2_K2-13</v>
       </c>
       <c r="B96" t="s">
@@ -4660,25 +4663,25 @@
         <v>90</v>
       </c>
       <c r="F96" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G96" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H96" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>K2</v>
       </c>
       <c r="I96" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="16" t="str">
-        <f>F97&amp;"_"&amp;G97&amp;"_"&amp;H97&amp;"-"&amp;I97</f>
+        <f t="shared" si="8"/>
         <v>_2_K2-26</v>
       </c>
       <c r="B97" t="s">
@@ -4694,25 +4697,25 @@
         <v>90</v>
       </c>
       <c r="F97" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G97" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H97" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>K2</v>
       </c>
       <c r="I97" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="16" t="str">
-        <f>F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;"-"&amp;I98</f>
+        <f t="shared" ref="A98:A109" si="12">F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;"-"&amp;I98</f>
         <v>_3_3-5</v>
       </c>
       <c r="B98" t="s">
@@ -4728,25 +4731,25 @@
         <v>85</v>
       </c>
       <c r="F98" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G98" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H98" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I98" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="16" t="str">
-        <f>F99&amp;"_"&amp;G99&amp;"_"&amp;H99&amp;"-"&amp;I99</f>
+        <f t="shared" si="12"/>
         <v>_3_K3-13</v>
       </c>
       <c r="B99" t="s">
@@ -4762,25 +4765,25 @@
         <v>90</v>
       </c>
       <c r="F99" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G99" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H99" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>K3</v>
       </c>
       <c r="I99" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="16" t="str">
-        <f>F100&amp;"_"&amp;G100&amp;"_"&amp;H100&amp;"-"&amp;I100</f>
+        <f t="shared" si="12"/>
         <v>_3_K3-26</v>
       </c>
       <c r="B100" t="s">
@@ -4796,29 +4799,29 @@
         <v>90</v>
       </c>
       <c r="F100" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G100" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H100" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>K3</v>
       </c>
       <c r="I100" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="16" t="str">
-        <f>F101&amp;"_"&amp;G101&amp;"_"&amp;H101&amp;"-"&amp;I101</f>
+        <f t="shared" si="12"/>
         <v>GRwf_1_0-4</v>
       </c>
       <c r="B101" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C101">
         <v>7.0594286602062413</v>
@@ -4830,29 +4833,29 @@
         <v>100</v>
       </c>
       <c r="F101" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRwf</v>
       </c>
       <c r="G101" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H101" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I101" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="16" t="str">
-        <f>F102&amp;"_"&amp;G102&amp;"_"&amp;H102&amp;"-"&amp;I102</f>
+        <f t="shared" si="12"/>
         <v>GRwf_1_4-13</v>
       </c>
       <c r="B102" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C102">
         <v>3.9415215927671445</v>
@@ -4864,29 +4867,29 @@
         <v>100</v>
       </c>
       <c r="F102" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRwf</v>
       </c>
       <c r="G102" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H102" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I102" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="16" t="str">
-        <f>F103&amp;"_"&amp;G103&amp;"_"&amp;H103&amp;"-"&amp;I103</f>
+        <f t="shared" si="12"/>
         <v>GRwf_1_13-28</v>
       </c>
       <c r="B103" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C103">
         <v>1.053422566631443</v>
@@ -4898,29 +4901,29 @@
         <v>100</v>
       </c>
       <c r="F103" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRwf</v>
       </c>
       <c r="G103" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H103" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I103" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="16" t="str">
-        <f>F104&amp;"_"&amp;G104&amp;"_"&amp;H104&amp;"-"&amp;I104</f>
+        <f t="shared" si="12"/>
         <v>GRwf_2_0-4</v>
       </c>
       <c r="B104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C104">
         <v>5.4173188588740224</v>
@@ -4932,29 +4935,29 @@
         <v>100</v>
       </c>
       <c r="F104" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRwf</v>
       </c>
       <c r="G104" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H104" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I104" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="16" t="str">
-        <f>F105&amp;"_"&amp;G105&amp;"_"&amp;H105&amp;"-"&amp;I105</f>
+        <f t="shared" si="12"/>
         <v>GRwf_2_4-13</v>
       </c>
       <c r="B105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C105">
         <v>1.9612169427266228</v>
@@ -4966,29 +4969,29 @@
         <v>100</v>
       </c>
       <c r="F105" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRwf</v>
       </c>
       <c r="G105" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H105" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I105" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="16" t="str">
-        <f>F106&amp;"_"&amp;G106&amp;"_"&amp;H106&amp;"-"&amp;I106</f>
+        <f t="shared" si="12"/>
         <v>GRwf_2_13-28</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C106">
         <v>1.666960130801157</v>
@@ -5000,29 +5003,29 @@
         <v>100</v>
       </c>
       <c r="F106" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRwf</v>
       </c>
       <c r="G106" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H106" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I106" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="16" t="str">
-        <f>F107&amp;"_"&amp;G107&amp;"_"&amp;H107&amp;"-"&amp;I107</f>
+        <f t="shared" si="12"/>
         <v>GRwf_3_0-4</v>
       </c>
       <c r="B107" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C107">
         <v>8.7015384615384601</v>
@@ -5034,29 +5037,29 @@
         <v>100</v>
       </c>
       <c r="F107" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRwf</v>
       </c>
       <c r="G107" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H107" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I107" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="16" t="str">
-        <f>F108&amp;"_"&amp;G108&amp;"_"&amp;H108&amp;"-"&amp;I108</f>
+        <f t="shared" si="12"/>
         <v>GRwf_3_4-13</v>
       </c>
       <c r="B108" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C108">
         <v>3.6558808423215212</v>
@@ -5068,29 +5071,29 @@
         <v>100</v>
       </c>
       <c r="F108" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GRwf</v>
       </c>
       <c r="G108" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H108" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I108" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="16" t="str">
-        <f>F109&amp;"_"&amp;G109&amp;"_"&amp;H109&amp;"-"&amp;I109</f>
+        <f t="shared" si="12"/>
         <v>GRwf_3_13-28</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C109">
         <v>1.5311160797465995</v>
@@ -5106,15 +5109,15 @@
         <v>GRwf</v>
       </c>
       <c r="G109" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H109" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I109" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
     </row>
@@ -5164,13 +5167,13 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>107</v>
@@ -5232,7 +5235,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="str">
-        <f>LEFT(D2,6)</f>
+        <f t="shared" ref="A2:A33" si="0">LEFT(D2,6)</f>
         <v>ANpp_1</v>
       </c>
       <c r="B2">
@@ -5244,7 +5247,7 @@
         <v>ANpp_11</v>
       </c>
       <c r="D2" t="str">
-        <f>E2&amp;IF(G2="PP","pp",IF(G2="WF","wf",IF(G2="RF","rf")))&amp;"_"&amp;H2&amp;"_"&amp;N2&amp;"-"&amp;O2</f>
+        <f t="shared" ref="D2:D33" si="1">E2&amp;IF(G2="PP","pp",IF(G2="WF","wf",IF(G2="RF","rf")))&amp;"_"&amp;H2&amp;"_"&amp;N2&amp;"-"&amp;O2</f>
         <v>ANpp_1_0-6</v>
       </c>
       <c r="E2" t="str">
@@ -5305,23 +5308,23 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="str">
-        <f>LEFT(D3,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">IF(A3=A2,B2+1,1)</f>
+        <f t="shared" ref="B3:B66" si="2">IF(A3=A2,B2+1,1)</f>
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="1">A3&amp;B3</f>
+        <f t="shared" ref="C3:C66" si="3">A3&amp;B3</f>
         <v>ANpp_12</v>
       </c>
       <c r="D3" t="str">
-        <f>E3&amp;IF(G3="PP","pp",IF(G3="WF","wf",IF(G3="RF","rf")))&amp;"_"&amp;H3&amp;"_"&amp;N3&amp;"-"&amp;O3</f>
+        <f t="shared" si="1"/>
         <v>ANpp_1_6-18</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="2">IF(F3="Andesite","AN",IF(F3="Basalt","BS",IF(F3="Granite","GR")))</f>
+        <f t="shared" ref="E3:E66" si="4">IF(F3="Andesite","AN",IF(F3="Basalt","BS",IF(F3="Granite","GR")))</f>
         <v>AN</v>
       </c>
       <c r="F3" t="s">
@@ -5375,23 +5378,23 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="str">
-        <f>LEFT(D4,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_1</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C4" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_13</v>
+      </c>
+      <c r="D4" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_13</v>
-      </c>
-      <c r="D4" t="str">
-        <f>E4&amp;IF(G4="PP","pp",IF(G4="WF","wf",IF(G4="RF","rf")))&amp;"_"&amp;H4&amp;"_"&amp;N4&amp;"-"&amp;O4</f>
         <v>ANpp_1_18-45</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F4" t="s">
@@ -5448,23 +5451,23 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="str">
-        <f>LEFT(D5,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_1</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C5" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_14</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_14</v>
-      </c>
-      <c r="D5" t="str">
-        <f>E5&amp;IF(G5="PP","pp",IF(G5="WF","wf",IF(G5="RF","rf")))&amp;"_"&amp;H5&amp;"_"&amp;N5&amp;"-"&amp;O5</f>
         <v>ANpp_1_45-70</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F5" t="s">
@@ -5518,23 +5521,23 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="str">
-        <f>LEFT(D6,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_1</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C6" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_15</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_15</v>
-      </c>
-      <c r="D6" t="str">
-        <f>E6&amp;IF(G6="PP","pp",IF(G6="WF","wf",IF(G6="RF","rf")))&amp;"_"&amp;H6&amp;"_"&amp;N6&amp;"-"&amp;O6</f>
         <v>ANpp_1_70-96</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F6" t="s">
@@ -5588,23 +5591,23 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="str">
-        <f>LEFT(D7,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_2</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C7" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_21</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_21</v>
-      </c>
-      <c r="D7" t="str">
-        <f>E7&amp;IF(G7="PP","pp",IF(G7="WF","wf",IF(G7="RF","rf")))&amp;"_"&amp;H7&amp;"_"&amp;N7&amp;"-"&amp;O7</f>
         <v>ANpp_2_0-9</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F7" t="s">
@@ -5661,23 +5664,23 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="str">
-        <f>LEFT(D8,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_2</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C8" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_22</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_22</v>
-      </c>
-      <c r="D8" t="str">
-        <f>E8&amp;IF(G8="PP","pp",IF(G8="WF","wf",IF(G8="RF","rf")))&amp;"_"&amp;H8&amp;"_"&amp;N8&amp;"-"&amp;O8</f>
         <v>ANpp_2_9-37</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F8" t="s">
@@ -5734,23 +5737,23 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="str">
-        <f>LEFT(D9,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_2</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C9" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_23</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_23</v>
-      </c>
-      <c r="D9" t="str">
-        <f>E9&amp;IF(G9="PP","pp",IF(G9="WF","wf",IF(G9="RF","rf")))&amp;"_"&amp;H9&amp;"_"&amp;N9&amp;"-"&amp;O9</f>
         <v>ANpp_2_37-67</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F9" t="s">
@@ -5804,23 +5807,23 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="str">
-        <f>LEFT(D10,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_2</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C10" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_24</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_24</v>
-      </c>
-      <c r="D10" t="str">
-        <f>E10&amp;IF(G10="PP","pp",IF(G10="WF","wf",IF(G10="RF","rf")))&amp;"_"&amp;H10&amp;"_"&amp;N10&amp;"-"&amp;O10</f>
         <v>ANpp_2_67-94</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F10" t="s">
@@ -5874,23 +5877,23 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="str">
-        <f>LEFT(D11,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_3</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C11" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_31</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_31</v>
-      </c>
-      <c r="D11" t="str">
-        <f>E11&amp;IF(G11="PP","pp",IF(G11="WF","wf",IF(G11="RF","rf")))&amp;"_"&amp;H11&amp;"_"&amp;N11&amp;"-"&amp;O11</f>
         <v>ANpp_3_0-6</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F11" t="s">
@@ -5947,23 +5950,23 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="str">
-        <f>LEFT(D12,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_3</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C12" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_32</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_32</v>
-      </c>
-      <c r="D12" t="str">
-        <f>E12&amp;IF(G12="PP","pp",IF(G12="WF","wf",IF(G12="RF","rf")))&amp;"_"&amp;H12&amp;"_"&amp;N12&amp;"-"&amp;O12</f>
         <v>ANpp_3_6-15</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F12" t="s">
@@ -6017,23 +6020,23 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="str">
-        <f>LEFT(D13,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_3</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C13" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_33</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_33</v>
-      </c>
-      <c r="D13" t="str">
-        <f>E13&amp;IF(G13="PP","pp",IF(G13="WF","wf",IF(G13="RF","rf")))&amp;"_"&amp;H13&amp;"_"&amp;N13&amp;"-"&amp;O13</f>
         <v>ANpp_3_15-28</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F13" t="s">
@@ -6090,23 +6093,23 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="str">
-        <f>LEFT(D14,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_3</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C14" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_34</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_34</v>
-      </c>
-      <c r="D14" t="str">
-        <f>E14&amp;IF(G14="PP","pp",IF(G14="WF","wf",IF(G14="RF","rf")))&amp;"_"&amp;H14&amp;"_"&amp;N14&amp;"-"&amp;O14</f>
         <v>ANpp_3_28-60</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F14" t="s">
@@ -6160,23 +6163,23 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="str">
-        <f>LEFT(D15,6)</f>
+        <f t="shared" si="0"/>
         <v>ANpp_3</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C15" t="str">
+        <f t="shared" si="3"/>
+        <v>ANpp_35</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v>ANpp_35</v>
-      </c>
-      <c r="D15" t="str">
-        <f>E15&amp;IF(G15="PP","pp",IF(G15="WF","wf",IF(G15="RF","rf")))&amp;"_"&amp;H15&amp;"_"&amp;N15&amp;"-"&amp;O15</f>
         <v>ANpp_3_60-98</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F15" t="s">
@@ -6230,23 +6233,23 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="str">
-        <f>LEFT(D16,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_1</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C16" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_11</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_11</v>
-      </c>
-      <c r="D16" t="str">
-        <f>E16&amp;IF(G16="PP","pp",IF(G16="WF","wf",IF(G16="RF","rf")))&amp;"_"&amp;H16&amp;"_"&amp;N16&amp;"-"&amp;O16</f>
         <v>ANrf_1_0-4</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F16" t="s">
@@ -6303,23 +6306,23 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="str">
-        <f>LEFT(D17,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_1</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C17" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_12</v>
+      </c>
+      <c r="D17" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_12</v>
-      </c>
-      <c r="D17" t="str">
-        <f>E17&amp;IF(G17="PP","pp",IF(G17="WF","wf",IF(G17="RF","rf")))&amp;"_"&amp;H17&amp;"_"&amp;N17&amp;"-"&amp;O17</f>
         <v>ANrf_1_4-9</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F17" t="s">
@@ -6373,23 +6376,23 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="str">
-        <f>LEFT(D18,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_1</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C18" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_13</v>
+      </c>
+      <c r="D18" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_13</v>
-      </c>
-      <c r="D18" t="str">
-        <f>E18&amp;IF(G18="PP","pp",IF(G18="WF","wf",IF(G18="RF","rf")))&amp;"_"&amp;H18&amp;"_"&amp;N18&amp;"-"&amp;O18</f>
         <v>ANrf_1_9-22</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F18" t="s">
@@ -6443,23 +6446,23 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="str">
-        <f>LEFT(D19,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_1</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C19" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_14</v>
+      </c>
+      <c r="D19" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_14</v>
-      </c>
-      <c r="D19" t="str">
-        <f>E19&amp;IF(G19="PP","pp",IF(G19="WF","wf",IF(G19="RF","rf")))&amp;"_"&amp;H19&amp;"_"&amp;N19&amp;"-"&amp;O19</f>
         <v>ANrf_1_22-43</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F19" t="s">
@@ -6516,23 +6519,23 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="str">
-        <f>LEFT(D20,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_1</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C20" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_15</v>
+      </c>
+      <c r="D20" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_15</v>
-      </c>
-      <c r="D20" t="str">
-        <f>E20&amp;IF(G20="PP","pp",IF(G20="WF","wf",IF(G20="RF","rf")))&amp;"_"&amp;H20&amp;"_"&amp;N20&amp;"-"&amp;O20</f>
         <v>ANrf_1_43-67</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F20" t="s">
@@ -6586,23 +6589,23 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="str">
-        <f>LEFT(D21,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_1</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C21" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_16</v>
+      </c>
+      <c r="D21" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_16</v>
-      </c>
-      <c r="D21" t="str">
-        <f>E21&amp;IF(G21="PP","pp",IF(G21="WF","wf",IF(G21="RF","rf")))&amp;"_"&amp;H21&amp;"_"&amp;N21&amp;"-"&amp;O21</f>
         <v>ANrf_1_67-80</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F21" t="s">
@@ -6656,23 +6659,23 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="str">
-        <f>LEFT(D22,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_2</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C22" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_21</v>
+      </c>
+      <c r="D22" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_21</v>
-      </c>
-      <c r="D22" t="str">
-        <f>E22&amp;IF(G22="PP","pp",IF(G22="WF","wf",IF(G22="RF","rf")))&amp;"_"&amp;H22&amp;"_"&amp;N22&amp;"-"&amp;O22</f>
         <v>ANrf_2_0-9</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F22" t="s">
@@ -6729,23 +6732,23 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="str">
-        <f>LEFT(D23,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C23" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_22</v>
+      </c>
+      <c r="D23" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_22</v>
-      </c>
-      <c r="D23" t="str">
-        <f>E23&amp;IF(G23="PP","pp",IF(G23="WF","wf",IF(G23="RF","rf")))&amp;"_"&amp;H23&amp;"_"&amp;N23&amp;"-"&amp;O23</f>
         <v>ANrf_2_9-19</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F23" t="s">
@@ -6799,23 +6802,23 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="str">
-        <f>LEFT(D24,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_2</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C24" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_23</v>
+      </c>
+      <c r="D24" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_23</v>
-      </c>
-      <c r="D24" t="str">
-        <f>E24&amp;IF(G24="PP","pp",IF(G24="WF","wf",IF(G24="RF","rf")))&amp;"_"&amp;H24&amp;"_"&amp;N24&amp;"-"&amp;O24</f>
         <v>ANrf_2_19-36</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F24" t="s">
@@ -6872,23 +6875,23 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="str">
-        <f>LEFT(D25,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_2</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_24</v>
+      </c>
+      <c r="D25" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_24</v>
-      </c>
-      <c r="D25" t="str">
-        <f>E25&amp;IF(G25="PP","pp",IF(G25="WF","wf",IF(G25="RF","rf")))&amp;"_"&amp;H25&amp;"_"&amp;N25&amp;"-"&amp;O25</f>
         <v>ANrf_2_36-56</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F25" t="s">
@@ -6942,23 +6945,23 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="str">
-        <f>LEFT(D26,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_2</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C26" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_25</v>
+      </c>
+      <c r="D26" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_25</v>
-      </c>
-      <c r="D26" t="str">
-        <f>E26&amp;IF(G26="PP","pp",IF(G26="WF","wf",IF(G26="RF","rf")))&amp;"_"&amp;H26&amp;"_"&amp;N26&amp;"-"&amp;O26</f>
         <v>ANrf_2_56-63</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F26" t="s">
@@ -7012,23 +7015,23 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="str">
-        <f>LEFT(D27,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_3</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C27" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_31</v>
+      </c>
+      <c r="D27" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_31</v>
-      </c>
-      <c r="D27" t="str">
-        <f>E27&amp;IF(G27="PP","pp",IF(G27="WF","wf",IF(G27="RF","rf")))&amp;"_"&amp;H27&amp;"_"&amp;N27&amp;"-"&amp;O27</f>
         <v>ANrf_3_0-10</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F27" t="s">
@@ -7085,23 +7088,23 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="str">
-        <f>LEFT(D28,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_3</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C28" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_32</v>
+      </c>
+      <c r="D28" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_32</v>
-      </c>
-      <c r="D28" t="str">
-        <f>E28&amp;IF(G28="PP","pp",IF(G28="WF","wf",IF(G28="RF","rf")))&amp;"_"&amp;H28&amp;"_"&amp;N28&amp;"-"&amp;O28</f>
         <v>ANrf_3_10-32</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F28" t="s">
@@ -7155,23 +7158,23 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="str">
-        <f>LEFT(D29,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_3</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_33</v>
+      </c>
+      <c r="D29" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_33</v>
-      </c>
-      <c r="D29" t="str">
-        <f>E29&amp;IF(G29="PP","pp",IF(G29="WF","wf",IF(G29="RF","rf")))&amp;"_"&amp;H29&amp;"_"&amp;N29&amp;"-"&amp;O29</f>
         <v>ANrf_3_32-51</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F29" t="s">
@@ -7225,23 +7228,23 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="str">
-        <f>LEFT(D30,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_3</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_34</v>
+      </c>
+      <c r="D30" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_34</v>
-      </c>
-      <c r="D30" t="str">
-        <f>E30&amp;IF(G30="PP","pp",IF(G30="WF","wf",IF(G30="RF","rf")))&amp;"_"&amp;H30&amp;"_"&amp;N30&amp;"-"&amp;O30</f>
         <v>ANrf_3_51-76</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F30" t="s">
@@ -7298,23 +7301,23 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="str">
-        <f>LEFT(D31,6)</f>
+        <f t="shared" si="0"/>
         <v>ANrf_3</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C31" t="str">
+        <f t="shared" si="3"/>
+        <v>ANrf_35</v>
+      </c>
+      <c r="D31" t="str">
         <f t="shared" si="1"/>
-        <v>ANrf_35</v>
-      </c>
-      <c r="D31" t="str">
-        <f>E31&amp;IF(G31="PP","pp",IF(G31="WF","wf",IF(G31="RF","rf")))&amp;"_"&amp;H31&amp;"_"&amp;N31&amp;"-"&amp;O31</f>
         <v>ANrf_3_76-86</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F31" t="s">
@@ -7368,23 +7371,23 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="str">
-        <f>LEFT(D32,6)</f>
+        <f t="shared" si="0"/>
         <v>ANwf_1</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C32" t="str">
+        <f t="shared" si="3"/>
+        <v>ANwf_11</v>
+      </c>
+      <c r="D32" t="str">
         <f t="shared" si="1"/>
-        <v>ANwf_11</v>
-      </c>
-      <c r="D32" t="str">
-        <f>E32&amp;IF(G32="PP","pp",IF(G32="WF","wf",IF(G32="RF","rf")))&amp;"_"&amp;H32&amp;"_"&amp;N32&amp;"-"&amp;O32</f>
         <v>ANwf_1_0-10</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F32" t="s">
@@ -7441,23 +7444,23 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="str">
-        <f>LEFT(D33,6)</f>
+        <f t="shared" si="0"/>
         <v>ANwf_1</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C33" t="str">
+        <f t="shared" si="3"/>
+        <v>ANwf_12</v>
+      </c>
+      <c r="D33" t="str">
         <f t="shared" si="1"/>
-        <v>ANwf_12</v>
-      </c>
-      <c r="D33" t="str">
-        <f>E33&amp;IF(G33="PP","pp",IF(G33="WF","wf",IF(G33="RF","rf")))&amp;"_"&amp;H33&amp;"_"&amp;N33&amp;"-"&amp;O33</f>
         <v>ANwf_1_10-21</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F33" t="s">
@@ -7514,23 +7517,23 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="str">
-        <f>LEFT(D34,6)</f>
+        <f t="shared" ref="A34:A65" si="5">LEFT(D34,6)</f>
         <v>ANwf_1</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_13</v>
       </c>
       <c r="D34" t="str">
-        <f>E34&amp;IF(G34="PP","pp",IF(G34="WF","wf",IF(G34="RF","rf")))&amp;"_"&amp;H34&amp;"_"&amp;N34&amp;"-"&amp;O34</f>
+        <f t="shared" ref="D34:D65" si="6">E34&amp;IF(G34="PP","pp",IF(G34="WF","wf",IF(G34="RF","rf")))&amp;"_"&amp;H34&amp;"_"&amp;N34&amp;"-"&amp;O34</f>
         <v>ANwf_1_21-52</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F34" t="s">
@@ -7584,23 +7587,23 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" t="str">
-        <f>LEFT(D35,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_1</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_14</v>
       </c>
       <c r="D35" t="str">
-        <f>E35&amp;IF(G35="PP","pp",IF(G35="WF","wf",IF(G35="RF","rf")))&amp;"_"&amp;H35&amp;"_"&amp;N35&amp;"-"&amp;O35</f>
+        <f t="shared" si="6"/>
         <v>ANwf_1_52-78</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F35" t="s">
@@ -7654,23 +7657,23 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="str">
-        <f>LEFT(D36,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_1</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_15</v>
       </c>
       <c r="D36" t="str">
-        <f>E36&amp;IF(G36="PP","pp",IF(G36="WF","wf",IF(G36="RF","rf")))&amp;"_"&amp;H36&amp;"_"&amp;N36&amp;"-"&amp;O36</f>
+        <f t="shared" si="6"/>
         <v>ANwf_1_78-85</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F36" t="s">
@@ -7724,23 +7727,23 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="str">
-        <f>LEFT(D37,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_2</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_21</v>
       </c>
       <c r="D37" t="str">
-        <f>E37&amp;IF(G37="PP","pp",IF(G37="WF","wf",IF(G37="RF","rf")))&amp;"_"&amp;H37&amp;"_"&amp;N37&amp;"-"&amp;O37</f>
+        <f t="shared" si="6"/>
         <v>ANwf_2_0-11</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F37" t="s">
@@ -7797,23 +7800,23 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="str">
-        <f>LEFT(D38,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_2</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_22</v>
       </c>
       <c r="D38" t="str">
-        <f>E38&amp;IF(G38="PP","pp",IF(G38="WF","wf",IF(G38="RF","rf")))&amp;"_"&amp;H38&amp;"_"&amp;N38&amp;"-"&amp;O38</f>
+        <f t="shared" si="6"/>
         <v>ANwf_2_11-20</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F38" t="s">
@@ -7870,23 +7873,23 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" t="str">
-        <f>LEFT(D39,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_2</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_23</v>
       </c>
       <c r="D39" t="str">
-        <f>E39&amp;IF(G39="PP","pp",IF(G39="WF","wf",IF(G39="RF","rf")))&amp;"_"&amp;H39&amp;"_"&amp;N39&amp;"-"&amp;O39</f>
+        <f t="shared" si="6"/>
         <v>ANwf_2_20-47</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F39" t="s">
@@ -7940,23 +7943,23 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="str">
-        <f>LEFT(D40,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_2</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_24</v>
       </c>
       <c r="D40" t="str">
-        <f>E40&amp;IF(G40="PP","pp",IF(G40="WF","wf",IF(G40="RF","rf")))&amp;"_"&amp;H40&amp;"_"&amp;N40&amp;"-"&amp;O40</f>
+        <f t="shared" si="6"/>
         <v>ANwf_2_47-85</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F40" t="s">
@@ -8010,23 +8013,23 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="str">
-        <f>LEFT(D41,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_3</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_31</v>
       </c>
       <c r="D41" t="str">
-        <f>E41&amp;IF(G41="PP","pp",IF(G41="WF","wf",IF(G41="RF","rf")))&amp;"_"&amp;H41&amp;"_"&amp;N41&amp;"-"&amp;O41</f>
+        <f t="shared" si="6"/>
         <v>ANwf_3_0-5</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F41" t="s">
@@ -8083,23 +8086,23 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="str">
-        <f>LEFT(D42,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_3</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_32</v>
       </c>
       <c r="D42" t="str">
-        <f>E42&amp;IF(G42="PP","pp",IF(G42="WF","wf",IF(G42="RF","rf")))&amp;"_"&amp;H42&amp;"_"&amp;N42&amp;"-"&amp;O42</f>
+        <f t="shared" si="6"/>
         <v>ANwf_3_5-15</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F42" t="s">
@@ -8156,23 +8159,23 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" t="str">
-        <f>LEFT(D43,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_3</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_33</v>
       </c>
       <c r="D43" t="str">
-        <f>E43&amp;IF(G43="PP","pp",IF(G43="WF","wf",IF(G43="RF","rf")))&amp;"_"&amp;H43&amp;"_"&amp;N43&amp;"-"&amp;O43</f>
+        <f t="shared" si="6"/>
         <v>ANwf_3_15-24</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F43" t="s">
@@ -8226,23 +8229,23 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" t="str">
-        <f>LEFT(D44,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_3</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_34</v>
       </c>
       <c r="D44" t="str">
-        <f>E44&amp;IF(G44="PP","pp",IF(G44="WF","wf",IF(G44="RF","rf")))&amp;"_"&amp;H44&amp;"_"&amp;N44&amp;"-"&amp;O44</f>
+        <f t="shared" si="6"/>
         <v>ANwf_3_24-41</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F44" t="s">
@@ -8296,23 +8299,23 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" t="str">
-        <f>LEFT(D45,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_3</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_35</v>
       </c>
       <c r="D45" t="str">
-        <f>E45&amp;IF(G45="PP","pp",IF(G45="WF","wf",IF(G45="RF","rf")))&amp;"_"&amp;H45&amp;"_"&amp;N45&amp;"-"&amp;O45</f>
+        <f t="shared" si="6"/>
         <v>ANwf_3_41-64</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F45" t="s">
@@ -8366,23 +8369,23 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" t="str">
-        <f>LEFT(D46,6)</f>
+        <f t="shared" si="5"/>
         <v>ANwf_3</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ANwf_36</v>
       </c>
       <c r="D46" t="str">
-        <f>E46&amp;IF(G46="PP","pp",IF(G46="WF","wf",IF(G46="RF","rf")))&amp;"_"&amp;H46&amp;"_"&amp;N46&amp;"-"&amp;O46</f>
+        <f t="shared" si="6"/>
         <v>ANwf_3_64-87</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AN</v>
       </c>
       <c r="F46" t="s">
@@ -8436,23 +8439,23 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" t="str">
-        <f>LEFT(D47,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_1</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_11</v>
       </c>
       <c r="D47" t="str">
-        <f>E47&amp;IF(G47="PP","pp",IF(G47="WF","wf",IF(G47="RF","rf")))&amp;"_"&amp;H47&amp;"_"&amp;N47&amp;"-"&amp;O47</f>
+        <f t="shared" si="6"/>
         <v>BSpp_1_0-10</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F47" t="s">
@@ -8509,23 +8512,23 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" t="str">
-        <f>LEFT(D48,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_1</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_12</v>
       </c>
       <c r="D48" t="str">
-        <f>E48&amp;IF(G48="PP","pp",IF(G48="WF","wf",IF(G48="RF","rf")))&amp;"_"&amp;H48&amp;"_"&amp;N48&amp;"-"&amp;O48</f>
+        <f t="shared" si="6"/>
         <v>BSpp_1_10-31</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F48" t="s">
@@ -8579,23 +8582,23 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" t="str">
-        <f>LEFT(D49,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_1</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_13</v>
       </c>
       <c r="D49" t="str">
-        <f>E49&amp;IF(G49="PP","pp",IF(G49="WF","wf",IF(G49="RF","rf")))&amp;"_"&amp;H49&amp;"_"&amp;N49&amp;"-"&amp;O49</f>
+        <f t="shared" si="6"/>
         <v>BSpp_1_31-56</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F49" t="s">
@@ -8652,23 +8655,23 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" t="str">
-        <f>LEFT(D50,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_1</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_14</v>
       </c>
       <c r="D50" t="str">
-        <f>E50&amp;IF(G50="PP","pp",IF(G50="WF","wf",IF(G50="RF","rf")))&amp;"_"&amp;H50&amp;"_"&amp;N50&amp;"-"&amp;O50</f>
+        <f t="shared" si="6"/>
         <v>BSpp_1_56-83</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F50" t="s">
@@ -8722,23 +8725,23 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="str">
-        <f>LEFT(D51,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_2</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_21</v>
       </c>
       <c r="D51" t="str">
-        <f>E51&amp;IF(G51="PP","pp",IF(G51="WF","wf",IF(G51="RF","rf")))&amp;"_"&amp;H51&amp;"_"&amp;N51&amp;"-"&amp;O51</f>
+        <f t="shared" si="6"/>
         <v>BSpp_2_0-4</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F51" t="s">
@@ -8795,23 +8798,23 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="str">
-        <f>LEFT(D52,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_2</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_22</v>
       </c>
       <c r="D52" t="str">
-        <f>E52&amp;IF(G52="PP","pp",IF(G52="WF","wf",IF(G52="RF","rf")))&amp;"_"&amp;H52&amp;"_"&amp;N52&amp;"-"&amp;O52</f>
+        <f t="shared" si="6"/>
         <v>BSpp_2_4-16</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F52" t="s">
@@ -8865,23 +8868,23 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="str">
-        <f>LEFT(D53,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_2</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_23</v>
       </c>
       <c r="D53" t="str">
-        <f>E53&amp;IF(G53="PP","pp",IF(G53="WF","wf",IF(G53="RF","rf")))&amp;"_"&amp;H53&amp;"_"&amp;N53&amp;"-"&amp;O53</f>
+        <f t="shared" si="6"/>
         <v>BSpp_2_16-40</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F53" t="s">
@@ -8938,23 +8941,23 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" t="str">
-        <f>LEFT(D54,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_2</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_24</v>
       </c>
       <c r="D54" t="str">
-        <f>E54&amp;IF(G54="PP","pp",IF(G54="WF","wf",IF(G54="RF","rf")))&amp;"_"&amp;H54&amp;"_"&amp;N54&amp;"-"&amp;O54</f>
+        <f t="shared" si="6"/>
         <v>BSpp_2_40-78</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F54" t="s">
@@ -9008,23 +9011,23 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" t="str">
-        <f>LEFT(D55,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_3</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_31</v>
       </c>
       <c r="D55" t="str">
-        <f>E55&amp;IF(G55="PP","pp",IF(G55="WF","wf",IF(G55="RF","rf")))&amp;"_"&amp;H55&amp;"_"&amp;N55&amp;"-"&amp;O55</f>
+        <f t="shared" si="6"/>
         <v>BSpp_3_0-10</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F55" t="s">
@@ -9081,23 +9084,23 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" t="str">
-        <f>LEFT(D56,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_3</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_32</v>
       </c>
       <c r="D56" t="str">
-        <f>E56&amp;IF(G56="PP","pp",IF(G56="WF","wf",IF(G56="RF","rf")))&amp;"_"&amp;H56&amp;"_"&amp;N56&amp;"-"&amp;O56</f>
+        <f t="shared" si="6"/>
         <v>BSpp_3_10-20</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F56" t="s">
@@ -9151,23 +9154,23 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" t="str">
-        <f>LEFT(D57,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_3</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_33</v>
       </c>
       <c r="D57" t="str">
-        <f>E57&amp;IF(G57="PP","pp",IF(G57="WF","wf",IF(G57="RF","rf")))&amp;"_"&amp;H57&amp;"_"&amp;N57&amp;"-"&amp;O57</f>
+        <f t="shared" si="6"/>
         <v>BSpp_3_20-38</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F57" t="s">
@@ -9221,23 +9224,23 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" t="str">
-        <f>LEFT(D58,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_3</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_34</v>
       </c>
       <c r="D58" t="str">
-        <f>E58&amp;IF(G58="PP","pp",IF(G58="WF","wf",IF(G58="RF","rf")))&amp;"_"&amp;H58&amp;"_"&amp;N58&amp;"-"&amp;O58</f>
+        <f t="shared" si="6"/>
         <v>BSpp_3_38-50</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F58" t="s">
@@ -9294,23 +9297,23 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" t="str">
-        <f>LEFT(D59,6)</f>
+        <f t="shared" si="5"/>
         <v>BSpp_3</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSpp_35</v>
       </c>
       <c r="D59" t="str">
-        <f>E59&amp;IF(G59="PP","pp",IF(G59="WF","wf",IF(G59="RF","rf")))&amp;"_"&amp;H59&amp;"_"&amp;N59&amp;"-"&amp;O59</f>
+        <f t="shared" si="6"/>
         <v>BSpp_3_50-78</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F59" t="s">
@@ -9364,23 +9367,23 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" t="str">
-        <f>LEFT(D60,6)</f>
+        <f t="shared" si="5"/>
         <v>BSrf_1</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSrf_11</v>
       </c>
       <c r="D60" t="str">
-        <f>E60&amp;IF(G60="PP","pp",IF(G60="WF","wf",IF(G60="RF","rf")))&amp;"_"&amp;H60&amp;"_"&amp;N60&amp;"-"&amp;O60</f>
+        <f t="shared" si="6"/>
         <v>BSrf_1_0-9</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F60" t="s">
@@ -9437,23 +9440,23 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" t="str">
-        <f>LEFT(D61,6)</f>
+        <f t="shared" si="5"/>
         <v>BSrf_1</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSrf_12</v>
       </c>
       <c r="D61" t="str">
-        <f>E61&amp;IF(G61="PP","pp",IF(G61="WF","wf",IF(G61="RF","rf")))&amp;"_"&amp;H61&amp;"_"&amp;N61&amp;"-"&amp;O61</f>
+        <f t="shared" si="6"/>
         <v>BSrf_1_9-23</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F61" t="s">
@@ -9507,23 +9510,23 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" t="str">
-        <f>LEFT(D62,6)</f>
+        <f t="shared" si="5"/>
         <v>BSrf_1</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSrf_13</v>
       </c>
       <c r="D62" t="str">
-        <f>E62&amp;IF(G62="PP","pp",IF(G62="WF","wf",IF(G62="RF","rf")))&amp;"_"&amp;H62&amp;"_"&amp;N62&amp;"-"&amp;O62</f>
+        <f t="shared" si="6"/>
         <v>BSrf_1_23-63</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F62" t="s">
@@ -9580,23 +9583,23 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" t="str">
-        <f>LEFT(D63,6)</f>
+        <f t="shared" si="5"/>
         <v>BSrf_1</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSrf_14</v>
       </c>
       <c r="D63" t="str">
-        <f>E63&amp;IF(G63="PP","pp",IF(G63="WF","wf",IF(G63="RF","rf")))&amp;"_"&amp;H63&amp;"_"&amp;N63&amp;"-"&amp;O63</f>
+        <f t="shared" si="6"/>
         <v>BSrf_1_63-98</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F63" t="s">
@@ -9650,23 +9653,23 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" t="str">
-        <f>LEFT(D64,6)</f>
+        <f t="shared" si="5"/>
         <v>BSrf_2</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSrf_21</v>
       </c>
       <c r="D64" t="str">
-        <f>E64&amp;IF(G64="PP","pp",IF(G64="WF","wf",IF(G64="RF","rf")))&amp;"_"&amp;H64&amp;"_"&amp;N64&amp;"-"&amp;O64</f>
+        <f t="shared" si="6"/>
         <v>BSrf_2_0-7</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F64" t="s">
@@ -9723,23 +9726,23 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" t="str">
-        <f>LEFT(D65,6)</f>
+        <f t="shared" si="5"/>
         <v>BSrf_2</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSrf_22</v>
       </c>
       <c r="D65" t="str">
-        <f>E65&amp;IF(G65="PP","pp",IF(G65="WF","wf",IF(G65="RF","rf")))&amp;"_"&amp;H65&amp;"_"&amp;N65&amp;"-"&amp;O65</f>
+        <f t="shared" si="6"/>
         <v>BSrf_2_7-18</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F65" t="s">
@@ -9793,23 +9796,23 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" t="str">
-        <f>LEFT(D66,6)</f>
+        <f t="shared" ref="A66:A97" si="7">LEFT(D66,6)</f>
         <v>BSrf_2</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BSrf_23</v>
       </c>
       <c r="D66" t="str">
-        <f>E66&amp;IF(G66="PP","pp",IF(G66="WF","wf",IF(G66="RF","rf")))&amp;"_"&amp;H66&amp;"_"&amp;N66&amp;"-"&amp;O66</f>
+        <f t="shared" ref="D66:D97" si="8">E66&amp;IF(G66="PP","pp",IF(G66="WF","wf",IF(G66="RF","rf")))&amp;"_"&amp;H66&amp;"_"&amp;N66&amp;"-"&amp;O66</f>
         <v>BSrf_2_18-59</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BS</v>
       </c>
       <c r="F66" t="s">
@@ -9866,23 +9869,23 @@
     </row>
     <row r="67" spans="1:22">
       <c r="A67" t="str">
-        <f>LEFT(D67,6)</f>
+        <f t="shared" si="7"/>
         <v>BSrf_2</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B125" si="3">IF(A67=A66,B66+1,1)</f>
+        <f t="shared" ref="B67:B125" si="9">IF(A67=A66,B66+1,1)</f>
         <v>4</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C125" si="4">A67&amp;B67</f>
+        <f t="shared" ref="C67:C125" si="10">A67&amp;B67</f>
         <v>BSrf_24</v>
       </c>
       <c r="D67" t="str">
-        <f>E67&amp;IF(G67="PP","pp",IF(G67="WF","wf",IF(G67="RF","rf")))&amp;"_"&amp;H67&amp;"_"&amp;N67&amp;"-"&amp;O67</f>
+        <f t="shared" si="8"/>
         <v>BSrf_2_59-93</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E125" si="5">IF(F67="Andesite","AN",IF(F67="Basalt","BS",IF(F67="Granite","GR")))</f>
+        <f t="shared" ref="E67:E125" si="11">IF(F67="Andesite","AN",IF(F67="Basalt","BS",IF(F67="Granite","GR")))</f>
         <v>BS</v>
       </c>
       <c r="F67" t="s">
@@ -9936,23 +9939,23 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" t="str">
-        <f>LEFT(D68,6)</f>
+        <f t="shared" si="7"/>
         <v>BSrf_3</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSrf_31</v>
       </c>
       <c r="D68" t="str">
-        <f>E68&amp;IF(G68="PP","pp",IF(G68="WF","wf",IF(G68="RF","rf")))&amp;"_"&amp;H68&amp;"_"&amp;N68&amp;"-"&amp;O68</f>
+        <f t="shared" si="8"/>
         <v>BSrf_3_0-8</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F68" t="s">
@@ -10009,23 +10012,23 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" t="str">
-        <f>LEFT(D69,6)</f>
+        <f t="shared" si="7"/>
         <v>BSrf_3</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSrf_32</v>
       </c>
       <c r="D69" t="str">
-        <f>E69&amp;IF(G69="PP","pp",IF(G69="WF","wf",IF(G69="RF","rf")))&amp;"_"&amp;H69&amp;"_"&amp;N69&amp;"-"&amp;O69</f>
+        <f t="shared" si="8"/>
         <v>BSrf_3_8-26</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F69" t="s">
@@ -10079,23 +10082,23 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" t="str">
-        <f>LEFT(D70,6)</f>
+        <f t="shared" si="7"/>
         <v>BSrf_3</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSrf_33</v>
       </c>
       <c r="D70" t="str">
-        <f>E70&amp;IF(G70="PP","pp",IF(G70="WF","wf",IF(G70="RF","rf")))&amp;"_"&amp;H70&amp;"_"&amp;N70&amp;"-"&amp;O70</f>
+        <f t="shared" si="8"/>
         <v>BSrf_3_26-54</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F70" t="s">
@@ -10152,23 +10155,23 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" t="str">
-        <f>LEFT(D71,6)</f>
+        <f t="shared" si="7"/>
         <v>BSrf_3</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSrf_34</v>
       </c>
       <c r="D71" t="str">
-        <f>E71&amp;IF(G71="PP","pp",IF(G71="WF","wf",IF(G71="RF","rf")))&amp;"_"&amp;H71&amp;"_"&amp;N71&amp;"-"&amp;O71</f>
+        <f t="shared" si="8"/>
         <v>BSrf_3_54-94</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F71" t="s">
@@ -10222,23 +10225,23 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" t="str">
-        <f>LEFT(D72,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_1</v>
       </c>
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_11</v>
       </c>
       <c r="D72" t="str">
-        <f>E72&amp;IF(G72="PP","pp",IF(G72="WF","wf",IF(G72="RF","rf")))&amp;"_"&amp;H72&amp;"_"&amp;N72&amp;"-"&amp;O72</f>
+        <f t="shared" si="8"/>
         <v>BSwf_1_0-8</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F72" t="s">
@@ -10295,23 +10298,23 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" t="str">
-        <f>LEFT(D73,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_1</v>
       </c>
       <c r="B73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_12</v>
       </c>
       <c r="D73" t="str">
-        <f>E73&amp;IF(G73="PP","pp",IF(G73="WF","wf",IF(G73="RF","rf")))&amp;"_"&amp;H73&amp;"_"&amp;N73&amp;"-"&amp;O73</f>
+        <f t="shared" si="8"/>
         <v>BSwf_1_8-38</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F73" t="s">
@@ -10368,23 +10371,23 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" t="str">
-        <f>LEFT(D74,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_1</v>
       </c>
       <c r="B74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_13</v>
       </c>
       <c r="D74" t="str">
-        <f>E74&amp;IF(G74="PP","pp",IF(G74="WF","wf",IF(G74="RF","rf")))&amp;"_"&amp;H74&amp;"_"&amp;N74&amp;"-"&amp;O74</f>
+        <f t="shared" si="8"/>
         <v>BSwf_1_38-56</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F74" t="s">
@@ -10438,23 +10441,23 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" t="str">
-        <f>LEFT(D75,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_1</v>
       </c>
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_14</v>
       </c>
       <c r="D75" t="str">
-        <f>E75&amp;IF(G75="PP","pp",IF(G75="WF","wf",IF(G75="RF","rf")))&amp;"_"&amp;H75&amp;"_"&amp;N75&amp;"-"&amp;O75</f>
+        <f t="shared" si="8"/>
         <v>BSwf_1_56-90</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F75" t="s">
@@ -10508,23 +10511,23 @@
     </row>
     <row r="76" spans="1:22">
       <c r="A76" t="str">
-        <f>LEFT(D76,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_2</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_21</v>
       </c>
       <c r="D76" t="str">
-        <f>E76&amp;IF(G76="PP","pp",IF(G76="WF","wf",IF(G76="RF","rf")))&amp;"_"&amp;H76&amp;"_"&amp;N76&amp;"-"&amp;O76</f>
+        <f t="shared" si="8"/>
         <v>BSwf_2_0-16</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F76" t="s">
@@ -10581,23 +10584,23 @@
     </row>
     <row r="77" spans="1:22">
       <c r="A77" t="str">
-        <f>LEFT(D77,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_2</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_22</v>
       </c>
       <c r="D77" t="str">
-        <f>E77&amp;IF(G77="PP","pp",IF(G77="WF","wf",IF(G77="RF","rf")))&amp;"_"&amp;H77&amp;"_"&amp;N77&amp;"-"&amp;O77</f>
+        <f t="shared" si="8"/>
         <v>BSwf_2_16-43</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F77" t="s">
@@ -10654,23 +10657,23 @@
     </row>
     <row r="78" spans="1:22">
       <c r="A78" t="str">
-        <f>LEFT(D78,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_2</v>
       </c>
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_23</v>
       </c>
       <c r="D78" t="str">
-        <f>E78&amp;IF(G78="PP","pp",IF(G78="WF","wf",IF(G78="RF","rf")))&amp;"_"&amp;H78&amp;"_"&amp;N78&amp;"-"&amp;O78</f>
+        <f t="shared" si="8"/>
         <v>BSwf_2_43-62</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F78" t="s">
@@ -10724,23 +10727,23 @@
     </row>
     <row r="79" spans="1:22">
       <c r="A79" t="str">
-        <f>LEFT(D79,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_2</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_24</v>
       </c>
       <c r="D79" t="str">
-        <f>E79&amp;IF(G79="PP","pp",IF(G79="WF","wf",IF(G79="RF","rf")))&amp;"_"&amp;H79&amp;"_"&amp;N79&amp;"-"&amp;O79</f>
+        <f t="shared" si="8"/>
         <v>BSwf_2_62-94</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F79" t="s">
@@ -10794,23 +10797,23 @@
     </row>
     <row r="80" spans="1:22">
       <c r="A80" t="str">
-        <f>LEFT(D80,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_3</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_31</v>
       </c>
       <c r="D80" t="str">
-        <f>E80&amp;IF(G80="PP","pp",IF(G80="WF","wf",IF(G80="RF","rf")))&amp;"_"&amp;H80&amp;"_"&amp;N80&amp;"-"&amp;O80</f>
+        <f t="shared" si="8"/>
         <v>BSwf_3_0-15</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F80" t="s">
@@ -10867,23 +10870,23 @@
     </row>
     <row r="81" spans="1:22">
       <c r="A81" t="str">
-        <f>LEFT(D81,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_3</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_32</v>
       </c>
       <c r="D81" t="str">
-        <f>E81&amp;IF(G81="PP","pp",IF(G81="WF","wf",IF(G81="RF","rf")))&amp;"_"&amp;H81&amp;"_"&amp;N81&amp;"-"&amp;O81</f>
+        <f t="shared" si="8"/>
         <v>BSwf_3_15-35</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F81" t="s">
@@ -10940,23 +10943,23 @@
     </row>
     <row r="82" spans="1:22">
       <c r="A82" t="str">
-        <f>LEFT(D82,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_3</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_33</v>
       </c>
       <c r="D82" t="str">
-        <f>E82&amp;IF(G82="PP","pp",IF(G82="WF","wf",IF(G82="RF","rf")))&amp;"_"&amp;H82&amp;"_"&amp;N82&amp;"-"&amp;O82</f>
+        <f t="shared" si="8"/>
         <v>BSwf_3_35-61</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F82" t="s">
@@ -11010,23 +11013,23 @@
     </row>
     <row r="83" spans="1:22">
       <c r="A83" t="str">
-        <f>LEFT(D83,6)</f>
+        <f t="shared" si="7"/>
         <v>BSwf_3</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>BSwf_34</v>
       </c>
       <c r="D83" t="str">
-        <f>E83&amp;IF(G83="PP","pp",IF(G83="WF","wf",IF(G83="RF","rf")))&amp;"_"&amp;H83&amp;"_"&amp;N83&amp;"-"&amp;O83</f>
+        <f t="shared" si="8"/>
         <v>BSwf_3_61-92</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>BS</v>
       </c>
       <c r="F83" t="s">
@@ -11080,23 +11083,23 @@
     </row>
     <row r="84" spans="1:22">
       <c r="A84" t="str">
-        <f>LEFT(D84,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_1</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_11</v>
       </c>
       <c r="D84" t="str">
-        <f>E84&amp;IF(G84="PP","pp",IF(G84="WF","wf",IF(G84="RF","rf")))&amp;"_"&amp;H84&amp;"_"&amp;N84&amp;"-"&amp;O84</f>
+        <f t="shared" si="8"/>
         <v>GRpp_1_0-10</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F84" t="s">
@@ -11153,23 +11156,23 @@
     </row>
     <row r="85" spans="1:22">
       <c r="A85" t="str">
-        <f>LEFT(D85,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_1</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_12</v>
       </c>
       <c r="D85" t="str">
-        <f>E85&amp;IF(G85="PP","pp",IF(G85="WF","wf",IF(G85="RF","rf")))&amp;"_"&amp;H85&amp;"_"&amp;N85&amp;"-"&amp;O85</f>
+        <f t="shared" si="8"/>
         <v>GRpp_1_10-37</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F85" t="s">
@@ -11223,23 +11226,23 @@
     </row>
     <row r="86" spans="1:22">
       <c r="A86" t="str">
-        <f>LEFT(D86,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_1</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_13</v>
       </c>
       <c r="D86" t="str">
-        <f>E86&amp;IF(G86="PP","pp",IF(G86="WF","wf",IF(G86="RF","rf")))&amp;"_"&amp;H86&amp;"_"&amp;N86&amp;"-"&amp;O86</f>
+        <f t="shared" si="8"/>
         <v>GRpp_1_37-84</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F86" t="s">
@@ -11296,23 +11299,23 @@
     </row>
     <row r="87" spans="1:22">
       <c r="A87" t="str">
-        <f>LEFT(D87,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_1</v>
       </c>
       <c r="B87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_14</v>
       </c>
       <c r="D87" t="str">
-        <f>E87&amp;IF(G87="PP","pp",IF(G87="WF","wf",IF(G87="RF","rf")))&amp;"_"&amp;H87&amp;"_"&amp;N87&amp;"-"&amp;O87</f>
+        <f t="shared" si="8"/>
         <v>GRpp_1_84-94</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F87" t="s">
@@ -11366,23 +11369,23 @@
     </row>
     <row r="88" spans="1:22">
       <c r="A88" t="str">
-        <f>LEFT(D88,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_2</v>
       </c>
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_21</v>
       </c>
       <c r="D88" t="str">
-        <f>E88&amp;IF(G88="PP","pp",IF(G88="WF","wf",IF(G88="RF","rf")))&amp;"_"&amp;H88&amp;"_"&amp;N88&amp;"-"&amp;O88</f>
+        <f t="shared" si="8"/>
         <v>GRpp_2_0-12</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F88" t="s">
@@ -11439,23 +11442,23 @@
     </row>
     <row r="89" spans="1:22">
       <c r="A89" t="str">
-        <f>LEFT(D89,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_2</v>
       </c>
       <c r="B89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_22</v>
       </c>
       <c r="D89" t="str">
-        <f>E89&amp;IF(G89="PP","pp",IF(G89="WF","wf",IF(G89="RF","rf")))&amp;"_"&amp;H89&amp;"_"&amp;N89&amp;"-"&amp;O89</f>
+        <f t="shared" si="8"/>
         <v>GRpp_2_12-28</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F89" t="s">
@@ -11509,23 +11512,23 @@
     </row>
     <row r="90" spans="1:22">
       <c r="A90" t="str">
-        <f>LEFT(D90,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_2</v>
       </c>
       <c r="B90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_23</v>
       </c>
       <c r="D90" t="str">
-        <f>E90&amp;IF(G90="PP","pp",IF(G90="WF","wf",IF(G90="RF","rf")))&amp;"_"&amp;H90&amp;"_"&amp;N90&amp;"-"&amp;O90</f>
+        <f t="shared" si="8"/>
         <v>GRpp_2_28-62</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F90" t="s">
@@ -11582,23 +11585,23 @@
     </row>
     <row r="91" spans="1:22">
       <c r="A91" t="str">
-        <f>LEFT(D91,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_2</v>
       </c>
       <c r="B91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_24</v>
       </c>
       <c r="D91" t="str">
-        <f>E91&amp;IF(G91="PP","pp",IF(G91="WF","wf",IF(G91="RF","rf")))&amp;"_"&amp;H91&amp;"_"&amp;N91&amp;"-"&amp;O91</f>
+        <f t="shared" si="8"/>
         <v>GRpp_2_62-84</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F91" t="s">
@@ -11652,23 +11655,23 @@
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="str">
-        <f>LEFT(D92,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_2</v>
       </c>
       <c r="B92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_25</v>
       </c>
       <c r="D92" t="str">
-        <f>E92&amp;IF(G92="PP","pp",IF(G92="WF","wf",IF(G92="RF","rf")))&amp;"_"&amp;H92&amp;"_"&amp;N92&amp;"-"&amp;O92</f>
+        <f t="shared" si="8"/>
         <v>GRpp_2_84-91</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F92" t="s">
@@ -11719,23 +11722,23 @@
     </row>
     <row r="93" spans="1:22">
       <c r="A93" t="str">
-        <f>LEFT(D93,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_3</v>
       </c>
       <c r="B93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_31</v>
       </c>
       <c r="D93" t="str">
-        <f>E93&amp;IF(G93="PP","pp",IF(G93="WF","wf",IF(G93="RF","rf")))&amp;"_"&amp;H93&amp;"_"&amp;N93&amp;"-"&amp;O93</f>
+        <f t="shared" si="8"/>
         <v>GRpp_3_0-11</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F93" t="s">
@@ -11792,23 +11795,23 @@
     </row>
     <row r="94" spans="1:22">
       <c r="A94" t="str">
-        <f>LEFT(D94,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_3</v>
       </c>
       <c r="B94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_32</v>
       </c>
       <c r="D94" t="str">
-        <f>E94&amp;IF(G94="PP","pp",IF(G94="WF","wf",IF(G94="RF","rf")))&amp;"_"&amp;H94&amp;"_"&amp;N94&amp;"-"&amp;O94</f>
+        <f t="shared" si="8"/>
         <v>GRpp_3_11-32</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F94" t="s">
@@ -11862,23 +11865,23 @@
     </row>
     <row r="95" spans="1:22">
       <c r="A95" t="str">
-        <f>LEFT(D95,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_3</v>
       </c>
       <c r="B95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_33</v>
       </c>
       <c r="D95" t="str">
-        <f>E95&amp;IF(G95="PP","pp",IF(G95="WF","wf",IF(G95="RF","rf")))&amp;"_"&amp;H95&amp;"_"&amp;N95&amp;"-"&amp;O95</f>
+        <f t="shared" si="8"/>
         <v>GRpp_3_32-54</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F95" t="s">
@@ -11935,23 +11938,23 @@
     </row>
     <row r="96" spans="1:22">
       <c r="A96" t="str">
-        <f>LEFT(D96,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_3</v>
       </c>
       <c r="B96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_34</v>
       </c>
       <c r="D96" t="str">
-        <f>E96&amp;IF(G96="PP","pp",IF(G96="WF","wf",IF(G96="RF","rf")))&amp;"_"&amp;H96&amp;"_"&amp;N96&amp;"-"&amp;O96</f>
+        <f t="shared" si="8"/>
         <v>GRpp_3_54-73</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F96" t="s">
@@ -12005,23 +12008,23 @@
     </row>
     <row r="97" spans="1:22">
       <c r="A97" t="str">
-        <f>LEFT(D97,6)</f>
+        <f t="shared" si="7"/>
         <v>GRpp_3</v>
       </c>
       <c r="B97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRpp_35</v>
       </c>
       <c r="D97" t="str">
-        <f>E97&amp;IF(G97="PP","pp",IF(G97="WF","wf",IF(G97="RF","rf")))&amp;"_"&amp;H97&amp;"_"&amp;N97&amp;"-"&amp;O97</f>
+        <f t="shared" si="8"/>
         <v>GRpp_3_73-91</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F97" t="s">
@@ -12075,23 +12078,23 @@
     </row>
     <row r="98" spans="1:22">
       <c r="A98" t="str">
-        <f>LEFT(D98,6)</f>
+        <f t="shared" ref="A98:A125" si="12">LEFT(D98,6)</f>
         <v>GRrf_1</v>
       </c>
       <c r="B98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_11</v>
       </c>
       <c r="D98" t="str">
-        <f>E98&amp;IF(G98="PP","pp",IF(G98="WF","wf",IF(G98="RF","rf")))&amp;"_"&amp;H98&amp;"_"&amp;N98&amp;"-"&amp;O98</f>
+        <f t="shared" ref="D98:D129" si="13">E98&amp;IF(G98="PP","pp",IF(G98="WF","wf",IF(G98="RF","rf")))&amp;"_"&amp;H98&amp;"_"&amp;N98&amp;"-"&amp;O98</f>
         <v>GRrf_1_0-13</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F98" t="s">
@@ -12148,23 +12151,23 @@
     </row>
     <row r="99" spans="1:22">
       <c r="A99" t="str">
-        <f>LEFT(D99,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_1</v>
       </c>
       <c r="B99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_12</v>
       </c>
       <c r="D99" t="str">
-        <f>E99&amp;IF(G99="PP","pp",IF(G99="WF","wf",IF(G99="RF","rf")))&amp;"_"&amp;H99&amp;"_"&amp;N99&amp;"-"&amp;O99</f>
+        <f t="shared" si="13"/>
         <v>GRrf_1_13-34</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F99" t="s">
@@ -12221,23 +12224,23 @@
     </row>
     <row r="100" spans="1:22">
       <c r="A100" t="str">
-        <f>LEFT(D100,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_1</v>
       </c>
       <c r="B100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_13</v>
       </c>
       <c r="D100" t="str">
-        <f>E100&amp;IF(G100="PP","pp",IF(G100="WF","wf",IF(G100="RF","rf")))&amp;"_"&amp;H100&amp;"_"&amp;N100&amp;"-"&amp;O100</f>
+        <f t="shared" si="13"/>
         <v>GRrf_1_34-62</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F100" t="s">
@@ -12291,23 +12294,23 @@
     </row>
     <row r="101" spans="1:22">
       <c r="A101" t="str">
-        <f>LEFT(D101,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_1</v>
       </c>
       <c r="B101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_14</v>
       </c>
       <c r="D101" t="str">
-        <f>E101&amp;IF(G101="PP","pp",IF(G101="WF","wf",IF(G101="RF","rf")))&amp;"_"&amp;H101&amp;"_"&amp;N101&amp;"-"&amp;O101</f>
+        <f t="shared" si="13"/>
         <v>GRrf_1_62-77</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F101" t="s">
@@ -12361,23 +12364,23 @@
     </row>
     <row r="102" spans="1:22">
       <c r="A102" t="str">
-        <f>LEFT(D102,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_1</v>
       </c>
       <c r="B102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_15</v>
       </c>
       <c r="D102" t="str">
-        <f>E102&amp;IF(G102="PP","pp",IF(G102="WF","wf",IF(G102="RF","rf")))&amp;"_"&amp;H102&amp;"_"&amp;N102&amp;"-"&amp;O102</f>
+        <f t="shared" si="13"/>
         <v>GRrf_1_77-98</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F102" t="s">
@@ -12431,23 +12434,23 @@
     </row>
     <row r="103" spans="1:22">
       <c r="A103" t="str">
-        <f>LEFT(D103,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_2</v>
       </c>
       <c r="B103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_21</v>
       </c>
       <c r="D103" t="str">
-        <f>E103&amp;IF(G103="PP","pp",IF(G103="WF","wf",IF(G103="RF","rf")))&amp;"_"&amp;H103&amp;"_"&amp;N103&amp;"-"&amp;O103</f>
+        <f t="shared" si="13"/>
         <v>GRrf_2_0-12</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F103" t="s">
@@ -12504,23 +12507,23 @@
     </row>
     <row r="104" spans="1:22">
       <c r="A104" t="str">
-        <f>LEFT(D104,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_2</v>
       </c>
       <c r="B104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_22</v>
       </c>
       <c r="D104" t="str">
-        <f>E104&amp;IF(G104="PP","pp",IF(G104="WF","wf",IF(G104="RF","rf")))&amp;"_"&amp;H104&amp;"_"&amp;N104&amp;"-"&amp;O104</f>
+        <f t="shared" si="13"/>
         <v>GRrf_2_12-35</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F104" t="s">
@@ -12577,23 +12580,23 @@
     </row>
     <row r="105" spans="1:22">
       <c r="A105" t="str">
-        <f>LEFT(D105,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_2</v>
       </c>
       <c r="B105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_23</v>
       </c>
       <c r="D105" t="str">
-        <f>E105&amp;IF(G105="PP","pp",IF(G105="WF","wf",IF(G105="RF","rf")))&amp;"_"&amp;H105&amp;"_"&amp;N105&amp;"-"&amp;O105</f>
+        <f t="shared" si="13"/>
         <v>GRrf_2_35-70</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F105" t="s">
@@ -12647,23 +12650,23 @@
     </row>
     <row r="106" spans="1:22">
       <c r="A106" t="str">
-        <f>LEFT(D106,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_2</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_24</v>
       </c>
       <c r="D106" t="str">
-        <f>E106&amp;IF(G106="PP","pp",IF(G106="WF","wf",IF(G106="RF","rf")))&amp;"_"&amp;H106&amp;"_"&amp;N106&amp;"-"&amp;O106</f>
+        <f t="shared" si="13"/>
         <v>GRrf_2_70-91</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F106" t="s">
@@ -12717,23 +12720,23 @@
     </row>
     <row r="107" spans="1:22">
       <c r="A107" t="str">
-        <f>LEFT(D107,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_3</v>
       </c>
       <c r="B107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_31</v>
       </c>
       <c r="D107" t="str">
-        <f>E107&amp;IF(G107="PP","pp",IF(G107="WF","wf",IF(G107="RF","rf")))&amp;"_"&amp;H107&amp;"_"&amp;N107&amp;"-"&amp;O107</f>
+        <f t="shared" si="13"/>
         <v>GRrf_3_0-13</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F107" t="s">
@@ -12790,23 +12793,23 @@
     </row>
     <row r="108" spans="1:22">
       <c r="A108" t="str">
-        <f>LEFT(D108,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_3</v>
       </c>
       <c r="B108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_32</v>
       </c>
       <c r="D108" t="str">
-        <f>E108&amp;IF(G108="PP","pp",IF(G108="WF","wf",IF(G108="RF","rf")))&amp;"_"&amp;H108&amp;"_"&amp;N108&amp;"-"&amp;O108</f>
+        <f t="shared" si="13"/>
         <v>GRrf_3_13-33</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F108" t="s">
@@ -12863,23 +12866,23 @@
     </row>
     <row r="109" spans="1:22">
       <c r="A109" t="str">
-        <f>LEFT(D109,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_3</v>
       </c>
       <c r="B109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_33</v>
       </c>
       <c r="D109" t="str">
-        <f>E109&amp;IF(G109="PP","pp",IF(G109="WF","wf",IF(G109="RF","rf")))&amp;"_"&amp;H109&amp;"_"&amp;N109&amp;"-"&amp;O109</f>
+        <f t="shared" si="13"/>
         <v>GRrf_3_33-76</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F109" t="s">
@@ -12933,23 +12936,23 @@
     </row>
     <row r="110" spans="1:22">
       <c r="A110" t="str">
-        <f>LEFT(D110,6)</f>
+        <f t="shared" si="12"/>
         <v>GRrf_3</v>
       </c>
       <c r="B110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRrf_34</v>
       </c>
       <c r="D110" t="str">
-        <f>E110&amp;IF(G110="PP","pp",IF(G110="WF","wf",IF(G110="RF","rf")))&amp;"_"&amp;H110&amp;"_"&amp;N110&amp;"-"&amp;O110</f>
+        <f t="shared" si="13"/>
         <v>GRrf_3_76-96</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F110" t="s">
@@ -13003,23 +13006,23 @@
     </row>
     <row r="111" spans="1:22">
       <c r="A111" t="str">
-        <f>LEFT(D111,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_1</v>
       </c>
       <c r="B111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_11</v>
       </c>
       <c r="D111" t="str">
-        <f>E111&amp;IF(G111="PP","pp",IF(G111="WF","wf",IF(G111="RF","rf")))&amp;"_"&amp;H111&amp;"_"&amp;N111&amp;"-"&amp;O111</f>
+        <f t="shared" si="13"/>
         <v>GRwf_1_0-9</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F111" t="s">
@@ -13076,23 +13079,23 @@
     </row>
     <row r="112" spans="1:22">
       <c r="A112" t="str">
-        <f>LEFT(D112,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_1</v>
       </c>
       <c r="B112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_12</v>
       </c>
       <c r="D112" t="str">
-        <f>E112&amp;IF(G112="PP","pp",IF(G112="WF","wf",IF(G112="RF","rf")))&amp;"_"&amp;H112&amp;"_"&amp;N112&amp;"-"&amp;O112</f>
+        <f t="shared" si="13"/>
         <v>GRwf_1_9-26</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F112" t="s">
@@ -13146,23 +13149,23 @@
     </row>
     <row r="113" spans="1:22">
       <c r="A113" t="str">
-        <f>LEFT(D113,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_1</v>
       </c>
       <c r="B113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_13</v>
       </c>
       <c r="D113" t="str">
-        <f>E113&amp;IF(G113="PP","pp",IF(G113="WF","wf",IF(G113="RF","rf")))&amp;"_"&amp;H113&amp;"_"&amp;N113&amp;"-"&amp;O113</f>
+        <f t="shared" si="13"/>
         <v>GRwf_1_26-77</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F113" t="s">
@@ -13219,23 +13222,23 @@
     </row>
     <row r="114" spans="1:22">
       <c r="A114" t="str">
-        <f>LEFT(D114,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_1</v>
       </c>
       <c r="B114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_14</v>
       </c>
       <c r="D114" t="str">
-        <f>E114&amp;IF(G114="PP","pp",IF(G114="WF","wf",IF(G114="RF","rf")))&amp;"_"&amp;H114&amp;"_"&amp;N114&amp;"-"&amp;O114</f>
+        <f t="shared" si="13"/>
         <v>GRwf_1_77-94</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F114" t="s">
@@ -13289,23 +13292,23 @@
     </row>
     <row r="115" spans="1:22">
       <c r="A115" t="str">
-        <f>LEFT(D115,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_1</v>
       </c>
       <c r="B115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_15</v>
       </c>
       <c r="D115" t="str">
-        <f>E115&amp;IF(G115="PP","pp",IF(G115="WF","wf",IF(G115="RF","rf")))&amp;"_"&amp;H115&amp;"_"&amp;N115&amp;"-"&amp;O115</f>
+        <f t="shared" si="13"/>
         <v>GRwf_1_94-114</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F115" t="s">
@@ -13356,23 +13359,23 @@
     </row>
     <row r="116" spans="1:22">
       <c r="A116" t="str">
-        <f>LEFT(D116,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_2</v>
       </c>
       <c r="B116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_21</v>
       </c>
       <c r="D116" t="str">
-        <f>E116&amp;IF(G116="PP","pp",IF(G116="WF","wf",IF(G116="RF","rf")))&amp;"_"&amp;H116&amp;"_"&amp;N116&amp;"-"&amp;O116</f>
+        <f t="shared" si="13"/>
         <v>GRwf_2_0-19</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F116" t="s">
@@ -13429,23 +13432,23 @@
     </row>
     <row r="117" spans="1:22">
       <c r="A117" t="str">
-        <f>LEFT(D117,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_2</v>
       </c>
       <c r="B117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_22</v>
       </c>
       <c r="D117" t="str">
-        <f>E117&amp;IF(G117="PP","pp",IF(G117="WF","wf",IF(G117="RF","rf")))&amp;"_"&amp;H117&amp;"_"&amp;N117&amp;"-"&amp;O117</f>
+        <f t="shared" si="13"/>
         <v>GRwf_2_19-36</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F117" t="s">
@@ -13502,23 +13505,23 @@
     </row>
     <row r="118" spans="1:22">
       <c r="A118" t="str">
-        <f>LEFT(D118,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_2</v>
       </c>
       <c r="B118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_23</v>
       </c>
       <c r="D118" t="str">
-        <f>E118&amp;IF(G118="PP","pp",IF(G118="WF","wf",IF(G118="RF","rf")))&amp;"_"&amp;H118&amp;"_"&amp;N118&amp;"-"&amp;O118</f>
+        <f t="shared" si="13"/>
         <v>GRwf_2_36-52</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F118" t="s">
@@ -13572,23 +13575,23 @@
     </row>
     <row r="119" spans="1:22">
       <c r="A119" t="str">
-        <f>LEFT(D119,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_2</v>
       </c>
       <c r="B119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_24</v>
       </c>
       <c r="D119" t="str">
-        <f>E119&amp;IF(G119="PP","pp",IF(G119="WF","wf",IF(G119="RF","rf")))&amp;"_"&amp;H119&amp;"_"&amp;N119&amp;"-"&amp;O119</f>
+        <f t="shared" si="13"/>
         <v>GRwf_2_52-79</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F119" t="s">
@@ -13642,23 +13645,23 @@
     </row>
     <row r="120" spans="1:22">
       <c r="A120" t="str">
-        <f>LEFT(D120,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_2</v>
       </c>
       <c r="B120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_25</v>
       </c>
       <c r="D120" t="str">
-        <f>E120&amp;IF(G120="PP","pp",IF(G120="WF","wf",IF(G120="RF","rf")))&amp;"_"&amp;H120&amp;"_"&amp;N120&amp;"-"&amp;O120</f>
+        <f t="shared" si="13"/>
         <v>GRwf_2_79-96</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F120" t="s">
@@ -13709,23 +13712,23 @@
     </row>
     <row r="121" spans="1:22">
       <c r="A121" t="str">
-        <f>LEFT(D121,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_3</v>
       </c>
       <c r="B121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_31</v>
       </c>
       <c r="D121" t="str">
-        <f>E121&amp;IF(G121="PP","pp",IF(G121="WF","wf",IF(G121="RF","rf")))&amp;"_"&amp;H121&amp;"_"&amp;N121&amp;"-"&amp;O121</f>
+        <f t="shared" si="13"/>
         <v>GRwf_3_0-18</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F121" t="s">
@@ -13782,23 +13785,23 @@
     </row>
     <row r="122" spans="1:22">
       <c r="A122" t="str">
-        <f>LEFT(D122,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_3</v>
       </c>
       <c r="B122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_32</v>
       </c>
       <c r="D122" t="str">
-        <f>E122&amp;IF(G122="PP","pp",IF(G122="WF","wf",IF(G122="RF","rf")))&amp;"_"&amp;H122&amp;"_"&amp;N122&amp;"-"&amp;O122</f>
+        <f t="shared" si="13"/>
         <v>GRwf_3_18-40</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F122" t="s">
@@ -13852,23 +13855,23 @@
     </row>
     <row r="123" spans="1:22">
       <c r="A123" t="str">
-        <f>LEFT(D123,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_3</v>
       </c>
       <c r="B123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_33</v>
       </c>
       <c r="D123" t="str">
-        <f>E123&amp;IF(G123="PP","pp",IF(G123="WF","wf",IF(G123="RF","rf")))&amp;"_"&amp;H123&amp;"_"&amp;N123&amp;"-"&amp;O123</f>
+        <f t="shared" si="13"/>
         <v>GRwf_3_40-61</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F123" t="s">
@@ -13925,23 +13928,23 @@
     </row>
     <row r="124" spans="1:22">
       <c r="A124" t="str">
-        <f>LEFT(D124,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_3</v>
       </c>
       <c r="B124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_34</v>
       </c>
       <c r="D124" t="str">
-        <f>E124&amp;IF(G124="PP","pp",IF(G124="WF","wf",IF(G124="RF","rf")))&amp;"_"&amp;H124&amp;"_"&amp;N124&amp;"-"&amp;O124</f>
+        <f t="shared" si="13"/>
         <v>GRwf_3_61-94</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F124" t="s">
@@ -13995,23 +13998,23 @@
     </row>
     <row r="125" spans="1:22">
       <c r="A125" t="str">
-        <f>LEFT(D125,6)</f>
+        <f t="shared" si="12"/>
         <v>GRwf_3</v>
       </c>
       <c r="B125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>GRwf_35</v>
       </c>
       <c r="D125" t="str">
-        <f>E125&amp;IF(G125="PP","pp",IF(G125="WF","wf",IF(G125="RF","rf")))&amp;"_"&amp;H125&amp;"_"&amp;N125&amp;"-"&amp;O125</f>
+        <f t="shared" si="13"/>
         <v>GRwf_3_94-117</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>GR</v>
       </c>
       <c r="F125" t="s">
@@ -19721,16 +19724,16 @@
   <sheetData>
     <row r="1" spans="1:79">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
         <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E1" t="s">
         <v>89</v>

--- a/data/external/sra_ras_sum/sierra_data_summary_2020.xlsx
+++ b/data/external/sra_ras_sum/sierra_data_summary_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2001_bulk_data" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="293">
   <si>
     <t>PM</t>
   </si>
@@ -912,6 +912,9 @@
   <si>
     <t>lyr_bot</t>
   </si>
+  <si>
+    <t>ID_sra</t>
+  </si>
 </sst>
 </file>
 
@@ -1412,7 +1415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1422,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -5136,7 +5139,7 @@
   <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5176,7 +5179,7 @@
         <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -12090,7 +12093,7 @@
         <v>GRrf_11</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98:D129" si="13">E98&amp;IF(G98="PP","pp",IF(G98="WF","wf",IF(G98="RF","rf")))&amp;"_"&amp;H98&amp;"_"&amp;N98&amp;"-"&amp;O98</f>
+        <f t="shared" ref="D98:D125" si="13">E98&amp;IF(G98="PP","pp",IF(G98="WF","wf",IF(G98="RF","rf")))&amp;"_"&amp;H98&amp;"_"&amp;N98&amp;"-"&amp;O98</f>
         <v>GRrf_1_0-13</v>
       </c>
       <c r="E98" t="str">
@@ -19653,8 +19656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA44"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19727,7 +19730,7 @@
         <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
         <v>285</v>

--- a/data/external/sra_ras_sum/sierra_data_summary_2020.xlsx
+++ b/data/external/sra_ras_sum/sierra_data_summary_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2001_bulk_data" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="295">
   <si>
     <t>PM</t>
   </si>
@@ -915,6 +915,12 @@
   <si>
     <t>ID_sra</t>
   </si>
+  <si>
+    <t>mass_kgm2</t>
+  </si>
+  <si>
+    <t>soc_kgm2</t>
+  </si>
 </sst>
 </file>
 
@@ -1033,7 +1039,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1047,8 +1053,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1096,21 +1110,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1423,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1436,11 +1463,13 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="16"/>
-    <col min="9" max="9" width="3.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" style="16" customWidth="1"/>
+    <col min="8" max="10" width="8.83203125" style="16"/>
+    <col min="11" max="11" width="3.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>107</v>
       </c>
@@ -1457,21 +1486,27 @@
         <v>88</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="16" t="str">
-        <f t="shared" ref="A2:A33" si="0">F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;"-"&amp;I2</f>
+        <f t="shared" ref="A2:A33" si="0">H2&amp;"_"&amp;I2&amp;"_"&amp;J2&amp;"-"&amp;K2</f>
         <v>BSrf_1_0-3</v>
       </c>
       <c r="B2" t="s">
@@ -1486,24 +1521,32 @@
       <c r="E2" s="9">
         <v>75</v>
       </c>
-      <c r="F2" s="16" t="str">
-        <f t="shared" ref="F2:F51" si="1">IF(LEFT(B2,4)="BSRF","BSrf",IF(LEFT(B2,4)="BSSP","BSwf",IF(LEFT(B2,4)="BSPP","BSpp",IF(LEFT(B2,4)="BSOK","",IF(LEFT(B2,4)="ANRF","ANrf",IF(LEFT(B2,4)="ANSP","Anwf",IF(LEFT(B2,4)="ANPP","ANpp",IF(LEFT(B2,4)="GRRF","GRrf",IF(LEFT(B2,4)="GRSP","GRwf",IF(LEFT(B2,4)="GRPP","GRpp",""))))))))))</f>
+      <c r="F2" s="20">
+        <f>D2*(K2-J2)*E2*10^-1</f>
+        <v>12.919854123869289</v>
+      </c>
+      <c r="G2" s="20">
+        <f>F2*C2*10^-2</f>
+        <v>3.6514959089010239</v>
+      </c>
+      <c r="H2" s="16" t="str">
+        <f t="shared" ref="H2:H51" si="1">IF(LEFT(B2,4)="BSRF","BSrf",IF(LEFT(B2,4)="BSSP","BSwf",IF(LEFT(B2,4)="BSPP","BSpp",IF(LEFT(B2,4)="BSOK","",IF(LEFT(B2,4)="ANRF","ANrf",IF(LEFT(B2,4)="ANSP","Anwf",IF(LEFT(B2,4)="ANPP","ANpp",IF(LEFT(B2,4)="GRRF","GRrf",IF(LEFT(B2,4)="GRSP","GRwf",IF(LEFT(B2,4)="GRPP","GRpp",""))))))))))</f>
         <v>BSrf</v>
       </c>
-      <c r="G2" s="16" t="str">
+      <c r="I2" s="16" t="str">
         <f>RIGHT(LEFT(B2,5),1)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="str">
-        <f>IF(LEN(I2)=1,LEFT(RIGHT(B2,3),1),LEFT(RIGHT(B2,5),2))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="16" t="str">
+      <c r="J2" s="16" t="str">
+        <f>IF(LEN(K2)=1,LEFT(RIGHT(B2,3),1),LEFT(RIGHT(B2,5),2))</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="16" t="str">
         <f>IF(LEFT(RIGHT(B2,2),1)="-",RIGHT(B2,1),RIGHT(B2,2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_1_3-8</v>
@@ -1520,24 +1563,33 @@
       <c r="E3" s="9">
         <v>80</v>
       </c>
-      <c r="F3" s="16" t="str">
+      <c r="F3" s="20">
+        <f t="shared" ref="F3:F61" si="2">D3*(K3-J3)*E3*10^-1</f>
+        <v>35.779662848073635</v>
+      </c>
+      <c r="G3" s="20">
+        <f t="shared" ref="G3:G34" si="3">F3*C3*10^-2</f>
+        <v>1.5223585047419119</v>
+      </c>
+      <c r="H3" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G3" s="16" t="str">
-        <f t="shared" ref="G3:G66" si="2">RIGHT(LEFT(B3,5),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="16" t="str">
-        <f t="shared" ref="H3" si="3">IF(LEN(I3)=1,LEFT(RIGHT(B3,3),1),LEFT(RIGHT(B3,5),2))</f>
+      <c r="I3" s="16" t="str">
+        <f t="shared" ref="I3:I66" si="4">RIGHT(LEFT(B3,5),1)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="16" t="str">
+        <f t="shared" ref="J3" si="5">IF(LEN(K3)=1,LEFT(RIGHT(B3,3),1),LEFT(RIGHT(B3,5),2))</f>
         <v>3</v>
       </c>
-      <c r="I3" s="16" t="str">
-        <f t="shared" ref="I3:I66" si="4">IF(LEFT(RIGHT(B3,2),1)="-",RIGHT(B3,1),RIGHT(B3,2))</f>
+      <c r="K3" s="16" t="str">
+        <f t="shared" ref="K3:K66" si="6">IF(LEFT(RIGHT(B3,2),1)="-",RIGHT(B3,1),RIGHT(B3,2))</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_1_8-15</v>
@@ -1554,24 +1606,32 @@
       <c r="E4" s="9">
         <v>50</v>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="F4" s="20">
+        <f t="shared" si="2"/>
+        <v>27.988544156386634</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" si="3"/>
+        <v>0.65598150366531172</v>
+      </c>
+      <c r="H4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G4" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H4" s="16" t="str">
-        <f>IF(LEN(I4)=1,LEFT(RIGHT(B4,3),1),IF(LEN(I4)=2,IF(LEFT(RIGHT(B4,5),1)=" ",LEFT(RIGHT(B4,4),1),LEFT(RIGHT(B4,5),2))))</f>
-        <v>8</v>
-      </c>
       <c r="I4" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f>IF(LEN(K4)=1,LEFT(RIGHT(B4,3),1),IF(LEN(K4)=2,IF(LEFT(RIGHT(B4,5),1)=" ",LEFT(RIGHT(B4,4),1),LEFT(RIGHT(B4,5),2))))</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_1_15-30</v>
@@ -1588,24 +1648,32 @@
       <c r="E5" s="9">
         <v>50</v>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" s="20">
+        <f t="shared" si="2"/>
+        <v>45.200913225492585</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="3"/>
+        <v>0.5921438896162815</v>
+      </c>
+      <c r="H5" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G5" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="str">
-        <f t="shared" ref="H5:H68" si="5">IF(LEN(I5)=1,LEFT(RIGHT(B5,3),1),IF(LEN(I5)=2,IF(LEFT(RIGHT(B5,5),1)=" ",LEFT(RIGHT(B5,4),1),LEFT(RIGHT(B5,5),2))))</f>
-        <v>15</v>
-      </c>
       <c r="I5" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="16" t="str">
+        <f t="shared" ref="J5:J68" si="7">IF(LEN(K5)=1,LEFT(RIGHT(B5,3),1),IF(LEN(K5)=2,IF(LEFT(RIGHT(B5,5),1)=" ",LEFT(RIGHT(B5,4),1),LEFT(RIGHT(B5,5),2))))</f>
+        <v>15</v>
+      </c>
+      <c r="K5" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_2_0-3</v>
@@ -1622,24 +1690,32 @@
       <c r="E6" s="9">
         <v>75</v>
       </c>
-      <c r="F6" s="16" t="str">
+      <c r="F6" s="20">
+        <f t="shared" si="2"/>
+        <v>12.919854123869289</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="3"/>
+        <v>3.088570497634497</v>
+      </c>
+      <c r="H6" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G6" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H6" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I6" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="A7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_2_3-8</v>
@@ -1656,24 +1732,32 @@
       <c r="E7" s="9">
         <v>80</v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="20">
+        <f t="shared" si="2"/>
+        <v>35.779662848073635</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="3"/>
+        <v>2.1475571671440177</v>
+      </c>
+      <c r="H7" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G7" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H7" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="I7" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_2_8-15</v>
@@ -1690,24 +1774,32 @@
       <c r="E8" s="9">
         <v>50</v>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="20">
+        <f t="shared" si="2"/>
+        <v>27.988544156386634</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="3"/>
+        <v>0.50839877231567943</v>
+      </c>
+      <c r="H8" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G8" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
       <c r="I8" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K8" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_2_15-30</v>
@@ -1724,24 +1816,32 @@
       <c r="E9" s="9">
         <v>50</v>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="20">
+        <f t="shared" si="2"/>
+        <v>45.200913225492585</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="3"/>
+        <v>0.80074698805028666</v>
+      </c>
+      <c r="H9" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G9" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H9" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
       <c r="I9" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="K9" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_3_0-3</v>
@@ -1758,24 +1858,32 @@
       <c r="E10" s="9">
         <v>75</v>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="20">
+        <f t="shared" si="2"/>
+        <v>12.919854123869289</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="3"/>
+        <v>3.3759755809973524</v>
+      </c>
+      <c r="H10" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
-      </c>
-      <c r="G10" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="I10" s="16" t="str">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_3_3-8</v>
@@ -1792,24 +1900,32 @@
       <c r="E11" s="9">
         <v>80</v>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="20">
+        <f t="shared" si="2"/>
+        <v>35.779662848073635</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="3"/>
+        <v>2.9506270780364114</v>
+      </c>
+      <c r="H11" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G11" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H11" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_3_8-15</v>
@@ -1826,24 +1942,32 @@
       <c r="E12" s="9">
         <v>50</v>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>27.988544156386634</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="3"/>
+        <v>0.56671686657554687</v>
+      </c>
+      <c r="H12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G12" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H12" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
       <c r="I12" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K12" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13">
       <c r="A13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSrf_3_15-30</v>
@@ -1860,24 +1984,32 @@
       <c r="E13" s="9">
         <v>50</v>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="20">
+        <f t="shared" si="2"/>
+        <v>45.200913225492585</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.61064333686813554</v>
+      </c>
+      <c r="H13" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSrf</v>
       </c>
-      <c r="G13" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H13" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
       <c r="I13" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="K13" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:13">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_1_0-10</v>
@@ -1894,24 +2026,32 @@
       <c r="E14" s="9">
         <v>85</v>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="20">
+        <f t="shared" si="2"/>
+        <v>50.996188576486247</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="3"/>
+        <v>4.8636884174729191</v>
+      </c>
+      <c r="H14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G14" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I14" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:13">
       <c r="A15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_1_10-19</v>
@@ -1928,24 +2068,32 @@
       <c r="E15" s="9">
         <v>80</v>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" s="20">
+        <f t="shared" si="2"/>
+        <v>37.308643818602384</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3110035051489386</v>
+      </c>
+      <c r="H15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G15" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
       <c r="I15" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_1_19-40</v>
@@ -1962,24 +2110,32 @@
       <c r="E16" s="9">
         <v>65</v>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" s="20">
+        <f t="shared" si="2"/>
+        <v>87.762260562333665</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5755304052825261</v>
+      </c>
+      <c r="H16" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G16" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
       <c r="I16" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="K16" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_2_0-10</v>
@@ -1996,24 +2152,32 @@
       <c r="E17" s="9">
         <v>85</v>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" s="20">
+        <f t="shared" si="2"/>
+        <v>50.996188576486247</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="3"/>
+        <v>3.470583916355547</v>
+      </c>
+      <c r="H17" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G17" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H17" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I17" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_2_10-19</v>
@@ -2030,24 +2194,32 @@
       <c r="E18" s="9">
         <v>80</v>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="20">
+        <f t="shared" si="2"/>
+        <v>37.308643818602384</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="3"/>
+        <v>0.96168162159832427</v>
+      </c>
+      <c r="H18" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G18" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H18" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
       <c r="I18" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K18" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_2_19-40</v>
@@ -2064,24 +2236,32 @@
       <c r="E19" s="9">
         <v>65</v>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="20">
+        <f t="shared" si="2"/>
+        <v>87.762260562333665</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="3"/>
+        <v>1.573848186147585</v>
+      </c>
+      <c r="H19" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G19" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H19" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
       <c r="I19" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="K19" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_3_0-10</v>
@@ -2098,24 +2278,32 @@
       <c r="E20" s="9">
         <v>85</v>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="20">
+        <f t="shared" si="2"/>
+        <v>50.996188576486247</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="3"/>
+        <v>5.9698948248303614</v>
+      </c>
+      <c r="H20" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G20" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H20" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I20" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11">
       <c r="A21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_3_10-19</v>
@@ -2132,24 +2320,32 @@
       <c r="E21" s="9">
         <v>80</v>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="20">
+        <f t="shared" si="2"/>
+        <v>37.308643818602384</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="3"/>
+        <v>1.173805663930904</v>
+      </c>
+      <c r="H21" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G21" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H21" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
       <c r="I21" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSwf_3_19-40</v>
@@ -2166,24 +2362,32 @@
       <c r="E22" s="9">
         <v>65</v>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="20">
+        <f t="shared" si="2"/>
+        <v>87.762260562333665</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="3"/>
+        <v>1.7364609625491081</v>
+      </c>
+      <c r="H22" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSwf</v>
       </c>
-      <c r="G22" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H22" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
       <c r="I22" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J22" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="K22" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_1_0-7</v>
@@ -2200,24 +2404,32 @@
       <c r="E23" s="9">
         <v>90</v>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="20">
+        <f t="shared" si="2"/>
+        <v>39.980853772680348</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2892649907167324</v>
+      </c>
+      <c r="H23" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G23" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I23" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_1_7-18</v>
@@ -2234,24 +2446,32 @@
       <c r="E24" s="9">
         <v>90</v>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="20">
+        <f t="shared" si="2"/>
+        <v>64.68636208795499</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="3"/>
+        <v>2.0307483252087333</v>
+      </c>
+      <c r="H24" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G24" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
       <c r="I24" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="K24" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_1_18-28</v>
@@ -2268,24 +2488,32 @@
       <c r="E25" s="9">
         <v>90</v>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="20">
+        <f t="shared" si="2"/>
+        <v>79.093142581076634</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3595854933512521</v>
+      </c>
+      <c r="H25" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G25" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
       <c r="I25" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K25" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_1_28-49</v>
@@ -2302,24 +2530,32 @@
       <c r="E26" s="9">
         <v>90</v>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="20">
+        <f t="shared" si="2"/>
+        <v>166.09559942026095</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3424882797286282</v>
+      </c>
+      <c r="H26" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G26" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
       <c r="I26" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="K26" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11">
       <c r="A27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_2_0-7</v>
@@ -2336,24 +2572,32 @@
       <c r="E27" s="9">
         <v>90</v>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="20">
+        <f t="shared" si="2"/>
+        <v>39.980853772680348</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="3"/>
+        <v>3.3042878632930983</v>
+      </c>
+      <c r="H27" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G27" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H27" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I27" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11">
       <c r="A28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_2_7-18</v>
@@ -2370,24 +2614,32 @@
       <c r="E28" s="9">
         <v>90</v>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="20">
+        <f t="shared" si="2"/>
+        <v>64.68636208795499</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2266600718724296</v>
+      </c>
+      <c r="H28" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G28" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H28" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
       <c r="I28" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="K28" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_2_18-28</v>
@@ -2404,24 +2656,32 @@
       <c r="E29" s="9">
         <v>90</v>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="20">
+        <f t="shared" si="2"/>
+        <v>79.093142581076634</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="3"/>
+        <v>1.1183880894859146</v>
+      </c>
+      <c r="H29" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G29" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H29" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
       <c r="I29" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K29" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11">
       <c r="A30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_2_28-49</v>
@@ -2438,24 +2698,32 @@
       <c r="E30" s="9">
         <v>90</v>
       </c>
-      <c r="F30" s="16" t="str">
+      <c r="F30" s="20">
+        <f t="shared" si="2"/>
+        <v>166.09559942026095</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="3"/>
+        <v>1.6463589165990424</v>
+      </c>
+      <c r="H30" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G30" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H30" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
       <c r="I30" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="K30" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11">
       <c r="A31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_3_0-7</v>
@@ -2472,24 +2740,32 @@
       <c r="E31" s="9">
         <v>90</v>
       </c>
-      <c r="F31" s="16" t="str">
+      <c r="F31" s="20">
+        <f t="shared" si="2"/>
+        <v>39.980853772680348</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="3"/>
+        <v>2.7864828543091433</v>
+      </c>
+      <c r="H31" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G31" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H31" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I31" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_3_7-18</v>
@@ -2506,24 +2782,32 @@
       <c r="E32" s="9">
         <v>90</v>
       </c>
-      <c r="F32" s="16" t="str">
+      <c r="F32" s="20">
+        <f t="shared" si="2"/>
+        <v>64.68636208795499</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="3"/>
+        <v>2.7598405898537095</v>
+      </c>
+      <c r="H32" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G32" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H32" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
       <c r="I32" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="K32" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:12">
       <c r="A33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BSpp_3_18-28</v>
@@ -2540,26 +2824,34 @@
       <c r="E33" s="9">
         <v>90</v>
       </c>
-      <c r="F33" s="16" t="str">
+      <c r="F33" s="20">
+        <f t="shared" si="2"/>
+        <v>79.093142581076634</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5920542020498796</v>
+      </c>
+      <c r="H33" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G33" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H33" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
       <c r="I33" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J33" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K33" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:12">
       <c r="A34" s="16" t="str">
-        <f t="shared" ref="A34:A65" si="6">F34&amp;"_"&amp;G34&amp;"_"&amp;H34&amp;"-"&amp;I34</f>
+        <f t="shared" ref="A34:A65" si="8">H34&amp;"_"&amp;I34&amp;"_"&amp;J34&amp;"-"&amp;K34</f>
         <v>BSpp_3_28-49</v>
       </c>
       <c r="B34" t="s">
@@ -2574,26 +2866,34 @@
       <c r="E34" s="9">
         <v>90</v>
       </c>
-      <c r="F34" s="16" t="str">
+      <c r="F34" s="20">
+        <f t="shared" si="2"/>
+        <v>166.09559942026095</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" si="3"/>
+        <v>2.0636952412256044</v>
+      </c>
+      <c r="H34" s="16" t="str">
         <f t="shared" si="1"/>
         <v>BSpp</v>
       </c>
-      <c r="G34" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H34" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
       <c r="I34" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J34" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="K34" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:12">
       <c r="A35" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_1_0-5</v>
       </c>
       <c r="B35" t="s">
@@ -2608,26 +2908,28 @@
       <c r="E35" s="9">
         <v>85</v>
       </c>
-      <c r="F35" s="16" t="str">
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I35" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:12">
       <c r="A36" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_1_5-16</v>
       </c>
       <c r="B36" t="s">
@@ -2642,26 +2944,28 @@
       <c r="E36" s="9">
         <v>80</v>
       </c>
-      <c r="F36" s="16" t="str">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="I36" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K36" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:12">
       <c r="A37" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_1_16-27</v>
       </c>
       <c r="B37" t="s">
@@ -2676,26 +2980,28 @@
       <c r="E37" s="9">
         <v>60</v>
       </c>
-      <c r="F37" s="16" t="str">
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H37" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
       <c r="I37" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="K37" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:12">
       <c r="A38" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_1_27-44</v>
       </c>
       <c r="B38" t="s">
@@ -2710,26 +3016,28 @@
       <c r="E38" s="9">
         <v>95</v>
       </c>
-      <c r="F38" s="16" t="str">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
       <c r="I38" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="K38" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:12">
       <c r="A39" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_2_0-5</v>
       </c>
       <c r="B39" t="s">
@@ -2744,26 +3052,28 @@
       <c r="E39" s="9">
         <v>85</v>
       </c>
-      <c r="F39" s="16" t="str">
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H39" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I39" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J39" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:12">
       <c r="A40" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_2_5-16</v>
       </c>
       <c r="B40" t="s">
@@ -2778,26 +3088,28 @@
       <c r="E40" s="9">
         <v>80</v>
       </c>
-      <c r="F40" s="16" t="str">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H40" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="I40" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J40" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K40" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:12">
       <c r="A41" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_2_16-27</v>
       </c>
       <c r="B41" t="s">
@@ -2812,26 +3124,28 @@
       <c r="E41" s="9">
         <v>60</v>
       </c>
-      <c r="F41" s="16" t="str">
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H41" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
       <c r="I41" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J41" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="K41" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:12">
       <c r="A42" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_2_27-44</v>
       </c>
       <c r="B42" t="s">
@@ -2846,26 +3160,28 @@
       <c r="E42" s="9">
         <v>95</v>
       </c>
-      <c r="F42" s="16" t="str">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H42" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
       <c r="I42" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="K42" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:12">
       <c r="A43" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_3_0-5</v>
       </c>
       <c r="B43" t="s">
@@ -2880,26 +3196,28 @@
       <c r="E43" s="9">
         <v>85</v>
       </c>
-      <c r="F43" s="16" t="str">
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H43" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I43" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J43" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:12">
       <c r="A44" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_3_5-16</v>
       </c>
       <c r="B44" t="s">
@@ -2914,26 +3232,28 @@
       <c r="E44" s="9">
         <v>80</v>
       </c>
-      <c r="F44" s="16" t="str">
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H44" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="I44" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J44" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K44" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:12">
       <c r="A45" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_3_16-27</v>
       </c>
       <c r="B45" t="s">
@@ -2948,26 +3268,28 @@
       <c r="E45" s="9">
         <v>60</v>
       </c>
-      <c r="F45" s="16" t="str">
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H45" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
       <c r="I45" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J45" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="K45" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:12">
       <c r="A46" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_3_27-44</v>
       </c>
       <c r="B46" t="s">
@@ -2982,26 +3304,28 @@
       <c r="E46" s="9">
         <v>95</v>
       </c>
-      <c r="F46" s="16" t="str">
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H46" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
       <c r="I46" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J46" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="K46" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:12">
       <c r="A47" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANrf_1_0-11</v>
       </c>
       <c r="B47" t="s">
@@ -3016,27 +3340,35 @@
       <c r="E47">
         <v>90</v>
       </c>
-      <c r="F47" s="16" t="str">
+      <c r="F47" s="20">
+        <f t="shared" si="2"/>
+        <v>47.395242815163627</v>
+      </c>
+      <c r="G47" s="20">
+        <f t="shared" ref="G47:G61" si="9">F47*C47*10^-2</f>
+        <v>6.1694855512292408</v>
+      </c>
+      <c r="H47" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ANrf</v>
       </c>
-      <c r="G47" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H47" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I47" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANrf_1_11-32</v>
       </c>
       <c r="B48" t="s">
@@ -3051,76 +3383,98 @@
       <c r="E48">
         <v>60</v>
       </c>
-      <c r="F48" s="16" t="str">
+      <c r="F48" s="20">
+        <f t="shared" si="2"/>
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G48" s="20">
+        <f t="shared" si="9"/>
+        <v>1.7437861829409496</v>
+      </c>
+      <c r="H48" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ANrf</v>
       </c>
-      <c r="G48" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H48" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
       <c r="I48" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="K48" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANrf_2_0-11</v>
       </c>
       <c r="B49" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="16" t="str">
+      <c r="F49" s="20">
+        <v>47.395242815163627</v>
+      </c>
+      <c r="G49" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ANrf</v>
       </c>
-      <c r="G49" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H49" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I49" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J49" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANrf_2_11-32</v>
       </c>
       <c r="B50" t="s">
         <v>240</v>
       </c>
-      <c r="F50" s="16" t="str">
+      <c r="F50" s="20">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G50" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ANrf</v>
       </c>
-      <c r="G50" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H50" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
       <c r="I50" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J50" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="K50" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11">
       <c r="A51" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANrf_3_0-11</v>
       </c>
       <c r="B51" t="s">
@@ -3135,26 +3489,34 @@
       <c r="E51">
         <v>90</v>
       </c>
-      <c r="F51" s="16" t="str">
+      <c r="F51" s="20">
+        <f>D51*(K51-J51)*E51*10^-1</f>
+        <v>47.395242815163627</v>
+      </c>
+      <c r="G51" s="20">
+        <f t="shared" si="9"/>
+        <v>3.0707621352812731</v>
+      </c>
+      <c r="H51" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ANrf</v>
       </c>
-      <c r="G51" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H51" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="I51" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J51" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANrf_3_11-32</v>
       </c>
       <c r="B52" t="s">
@@ -3169,26 +3531,34 @@
       <c r="E52">
         <v>60</v>
       </c>
-      <c r="F52" s="16" t="str">
+      <c r="F52" s="20">
+        <f t="shared" si="2"/>
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G52" s="20">
+        <f t="shared" si="9"/>
+        <v>2.7699212598425205</v>
+      </c>
+      <c r="H52" s="16" t="str">
         <f>IF(LEFT(B52,4)="BSRF","BSrf",IF(LEFT(B52,4)="BSSP","BSwf",IF(LEFT(B52,4)="BSPP","BSpp",IF(LEFT(B52,4)="BSOK","",IF(LEFT(B52,4)="ANRF","ANrf",IF(LEFT(B52,4)="ANSP","ANwf",IF(LEFT(B52,4)="ANPP","ANpp",IF(LEFT(B52,4)="GRRF","GRrf",IF(LEFT(B52,4)="GRSP","GRwf",IF(LEFT(B52,4)="GRPP","GRpp",""))))))))))</f>
         <v>ANrf</v>
       </c>
-      <c r="G52" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H52" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
       <c r="I52" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J52" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="K52" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:11">
       <c r="A53" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_1_0-6</v>
       </c>
       <c r="B53" t="s">
@@ -3203,26 +3573,34 @@
       <c r="E53">
         <v>100</v>
       </c>
-      <c r="F53" s="16" t="str">
-        <f t="shared" ref="F53:F108" si="7">IF(LEFT(B53,4)="BSRF","BSrf",IF(LEFT(B53,4)="BSSP","BSwf",IF(LEFT(B53,4)="BSPP","BSpp",IF(LEFT(B53,4)="BSOK","",IF(LEFT(B53,4)="ANRF","ANrf",IF(LEFT(B53,4)="ANSP","ANwf",IF(LEFT(B53,4)="ANPP","ANpp",IF(LEFT(B53,4)="GRRF","GRrf",IF(LEFT(B53,4)="GRSP","GRwf",IF(LEFT(B53,4)="GRPP","GRpp",""))))))))))</f>
+      <c r="F53" s="20">
+        <f t="shared" si="2"/>
+        <v>35.407304565004139</v>
+      </c>
+      <c r="G53" s="20">
+        <f t="shared" si="9"/>
+        <v>3.6967913387158062</v>
+      </c>
+      <c r="H53" s="16" t="str">
+        <f t="shared" ref="H53:H108" si="10">IF(LEFT(B53,4)="BSRF","BSrf",IF(LEFT(B53,4)="BSSP","BSwf",IF(LEFT(B53,4)="BSPP","BSpp",IF(LEFT(B53,4)="BSOK","",IF(LEFT(B53,4)="ANRF","ANrf",IF(LEFT(B53,4)="ANSP","ANwf",IF(LEFT(B53,4)="ANPP","ANpp",IF(LEFT(B53,4)="GRRF","GRrf",IF(LEFT(B53,4)="GRSP","GRwf",IF(LEFT(B53,4)="GRPP","GRpp",""))))))))))</f>
         <v>ANpp</v>
-      </c>
-      <c r="G53" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H53" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="I53" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11">
       <c r="A54" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_1_6-13</v>
       </c>
       <c r="B54" t="s">
@@ -3237,26 +3615,34 @@
       <c r="E54">
         <v>100</v>
       </c>
-      <c r="F54" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F54" s="20">
+        <f t="shared" si="2"/>
+        <v>59.080433117376394</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" si="9"/>
+        <v>3.107510313335041</v>
+      </c>
+      <c r="H54" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANpp</v>
-      </c>
-      <c r="G54" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H54" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>6</v>
       </c>
       <c r="I54" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K54" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:11">
       <c r="A55" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_1_13-33</v>
       </c>
       <c r="B55" t="s">
@@ -3271,26 +3657,34 @@
       <c r="E55">
         <v>100</v>
       </c>
-      <c r="F55" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F55" s="20">
+        <f t="shared" si="2"/>
+        <v>176.27040071612305</v>
+      </c>
+      <c r="G55" s="20">
+        <f t="shared" si="9"/>
+        <v>4.0016741877036459</v>
+      </c>
+      <c r="H55" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANpp</v>
-      </c>
-      <c r="G55" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H55" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>13</v>
       </c>
       <c r="I55" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="K55" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11">
       <c r="A56" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_2_0-6</v>
       </c>
       <c r="B56" t="s">
@@ -3305,26 +3699,34 @@
       <c r="E56">
         <v>100</v>
       </c>
-      <c r="F56" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F56" s="20">
+        <f t="shared" si="2"/>
+        <v>35.407304565004139</v>
+      </c>
+      <c r="G56" s="20">
+        <f t="shared" si="9"/>
+        <v>2.9772968682429943</v>
+      </c>
+      <c r="H56" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANpp</v>
-      </c>
-      <c r="G56" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H56" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="I56" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J56" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11">
       <c r="A57" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_2_6-13</v>
       </c>
       <c r="B57" t="s">
@@ -3339,26 +3741,34 @@
       <c r="E57">
         <v>100</v>
       </c>
-      <c r="F57" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F57" s="20">
+        <f t="shared" si="2"/>
+        <v>59.080433117376394</v>
+      </c>
+      <c r="G57" s="20">
+        <f t="shared" si="9"/>
+        <v>2.5762117960865245</v>
+      </c>
+      <c r="H57" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANpp</v>
-      </c>
-      <c r="G57" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H57" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>6</v>
       </c>
       <c r="I57" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J57" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K57" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11">
       <c r="A58" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_2_13-33</v>
       </c>
       <c r="B58" t="s">
@@ -3373,26 +3783,34 @@
       <c r="E58">
         <v>100</v>
       </c>
-      <c r="F58" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F58" s="20">
+        <f t="shared" si="2"/>
+        <v>176.27040071612305</v>
+      </c>
+      <c r="G58" s="20">
+        <f t="shared" si="9"/>
+        <v>4.177865653734032</v>
+      </c>
+      <c r="H58" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANpp</v>
-      </c>
-      <c r="G58" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H58" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>13</v>
       </c>
       <c r="I58" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J58" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="K58" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:11">
       <c r="A59" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_3_0-6</v>
       </c>
       <c r="B59" t="s">
@@ -3407,26 +3825,34 @@
       <c r="E59">
         <v>100</v>
       </c>
-      <c r="F59" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F59" s="20">
+        <f t="shared" si="2"/>
+        <v>35.407304565004139</v>
+      </c>
+      <c r="G59" s="20">
+        <f t="shared" si="9"/>
+        <v>3.759161638614458</v>
+      </c>
+      <c r="H59" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANpp</v>
-      </c>
-      <c r="G59" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H59" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="I59" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J59" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:11">
       <c r="A60" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_3_6-13</v>
       </c>
       <c r="B60" t="s">
@@ -3441,26 +3867,34 @@
       <c r="E60">
         <v>100</v>
       </c>
-      <c r="F60" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F60" s="20">
+        <f t="shared" si="2"/>
+        <v>59.080433117376394</v>
+      </c>
+      <c r="G60" s="20">
+        <f t="shared" si="9"/>
+        <v>3.9767223083586192</v>
+      </c>
+      <c r="H60" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANpp</v>
-      </c>
-      <c r="G60" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H60" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>6</v>
       </c>
       <c r="I60" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J60" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K60" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:11">
       <c r="A61" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ANpp_3_13-33</v>
       </c>
       <c r="B61" t="s">
@@ -3475,26 +3909,34 @@
       <c r="E61">
         <v>100</v>
       </c>
-      <c r="F61" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F61" s="20">
+        <f t="shared" si="2"/>
+        <v>176.27040071612305</v>
+      </c>
+      <c r="G61" s="20">
+        <f t="shared" si="9"/>
+        <v>6.9358390896512994</v>
+      </c>
+      <c r="H61" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANpp</v>
-      </c>
-      <c r="G61" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H61" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>13</v>
       </c>
       <c r="I61" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J61" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="K61" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:11">
       <c r="A62" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_1_0-12</v>
       </c>
       <c r="B62" t="s">
@@ -3509,26 +3951,28 @@
       <c r="E62">
         <v>80</v>
       </c>
-      <c r="F62" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
-      </c>
-      <c r="G62" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H62" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="I62" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:11">
       <c r="A63" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_1_12-29</v>
       </c>
       <c r="B63" t="s">
@@ -3543,26 +3987,28 @@
       <c r="E63">
         <v>40</v>
       </c>
-      <c r="F63" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
-      </c>
-      <c r="G63" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H63" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>12</v>
       </c>
       <c r="I63" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J63" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="K63" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:11">
       <c r="A64" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_2_0-15</v>
       </c>
       <c r="B64" t="s">
@@ -3577,26 +4023,28 @@
       <c r="E64">
         <v>80</v>
       </c>
-      <c r="F64" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
-      </c>
-      <c r="G64" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H64" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="I64" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J64" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11">
       <c r="A65" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>_2_15-25</v>
       </c>
       <c r="B65" t="s">
@@ -3611,26 +4059,28 @@
       <c r="E65">
         <v>40</v>
       </c>
-      <c r="F65" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
-      </c>
-      <c r="G65" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H65" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>15</v>
       </c>
       <c r="I65" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J65" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="K65" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11">
       <c r="A66" s="16" t="str">
-        <f t="shared" ref="A66:A97" si="8">F66&amp;"_"&amp;G66&amp;"_"&amp;H66&amp;"-"&amp;I66</f>
+        <f t="shared" ref="A66:A97" si="11">H66&amp;"_"&amp;I66&amp;"_"&amp;J66&amp;"-"&amp;K66</f>
         <v>_3_0-12</v>
       </c>
       <c r="B66" t="s">
@@ -3645,26 +4095,28 @@
       <c r="E66">
         <v>80</v>
       </c>
-      <c r="F66" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
-      </c>
-      <c r="G66" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H66" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="I66" s="16" t="str">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J66" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="16" t="str">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11">
       <c r="A67" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>_3_12-29</v>
       </c>
       <c r="B67" t="s">
@@ -3679,26 +4131,28 @@
       <c r="E67">
         <v>40</v>
       </c>
-      <c r="F67" s="16" t="str">
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I67" s="16" t="str">
+        <f t="shared" ref="I67:I109" si="12">RIGHT(LEFT(B67,5),1)</f>
+        <v>3</v>
+      </c>
+      <c r="J67" s="16" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G67" s="16" t="str">
-        <f t="shared" ref="G67:G109" si="9">RIGHT(LEFT(B67,5),1)</f>
-        <v>3</v>
-      </c>
-      <c r="H67" s="16" t="str">
-        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="I67" s="16" t="str">
-        <f t="shared" ref="I67:I109" si="10">IF(LEFT(RIGHT(B67,2),1)="-",RIGHT(B67,1),RIGHT(B67,2))</f>
+      <c r="K67" s="16" t="str">
+        <f t="shared" ref="K67:K109" si="13">IF(LEFT(RIGHT(B67,2),1)="-",RIGHT(B67,1),RIGHT(B67,2))</f>
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>ANwf_1_0-11</v>
       </c>
       <c r="B68" t="s">
@@ -3713,26 +4167,34 @@
       <c r="E68">
         <v>70</v>
       </c>
-      <c r="F68" s="16" t="str">
+      <c r="F68" s="20">
+        <f t="shared" ref="F68:F109" si="14">D68*(K68-J68)*E68*10^-1</f>
+        <v>33.729434404096558</v>
+      </c>
+      <c r="G68" s="20">
+        <f t="shared" ref="G68:G91" si="15">F68*C68*10^-2</f>
+        <v>2.7405165453328455</v>
+      </c>
+      <c r="H68" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>ANwf</v>
+      </c>
+      <c r="I68" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J68" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>ANwf</v>
-      </c>
-      <c r="G68" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H68" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="16" t="str">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11">
       <c r="A69" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>ANwf_1_11-35</v>
       </c>
       <c r="B69" t="s">
@@ -3747,26 +4209,34 @@
       <c r="E69">
         <v>40</v>
       </c>
-      <c r="F69" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F69" s="20">
+        <f t="shared" si="14"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="G69" s="20">
+        <f t="shared" si="15"/>
+        <v>5.3248161836218628</v>
+      </c>
+      <c r="H69" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANwf</v>
       </c>
-      <c r="G69" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H69" s="16" t="str">
-        <f t="shared" ref="H69:H109" si="11">IF(LEN(I69)=1,LEFT(RIGHT(B69,3),1),IF(LEN(I69)=2,IF(LEFT(RIGHT(B69,5),1)=" ",LEFT(RIGHT(B69,4),1),LEFT(RIGHT(B69,5),2))))</f>
+      <c r="I69" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J69" s="16" t="str">
+        <f t="shared" ref="J69:J109" si="16">IF(LEN(K69)=1,LEFT(RIGHT(B69,3),1),IF(LEN(K69)=2,IF(LEFT(RIGHT(B69,5),1)=" ",LEFT(RIGHT(B69,4),1),LEFT(RIGHT(B69,5),2))))</f>
         <v>11</v>
       </c>
-      <c r="I69" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K69" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11">
       <c r="A70" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>ANwf_2_0-11</v>
       </c>
       <c r="B70" t="s">
@@ -3781,26 +4251,34 @@
       <c r="E70">
         <v>70</v>
       </c>
-      <c r="F70" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F70" s="20">
+        <f t="shared" si="14"/>
+        <v>33.729434404096558</v>
+      </c>
+      <c r="G70" s="20">
+        <f t="shared" si="15"/>
+        <v>2.7662406692030288</v>
+      </c>
+      <c r="H70" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANwf</v>
       </c>
-      <c r="G70" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H70" s="16" t="str">
+      <c r="I70" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J70" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>ANwf_2_11-35</v>
       </c>
       <c r="B71" t="s">
@@ -3815,26 +4293,34 @@
       <c r="E71">
         <v>40</v>
       </c>
-      <c r="F71" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F71" s="20">
+        <f t="shared" si="14"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="G71" s="20">
+        <f t="shared" si="15"/>
+        <v>4.4013978296854894</v>
+      </c>
+      <c r="H71" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANwf</v>
       </c>
-      <c r="G71" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H71" s="16" t="str">
+      <c r="I71" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J71" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="K71" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="I71" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>ANwf_3_0-11</v>
       </c>
       <c r="B72" t="s">
@@ -3849,26 +4335,34 @@
       <c r="E72">
         <v>70</v>
       </c>
-      <c r="F72" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F72" s="20">
+        <f t="shared" si="14"/>
+        <v>33.729434404096558</v>
+      </c>
+      <c r="G72" s="20">
+        <f t="shared" si="15"/>
+        <v>2.9919025354315312</v>
+      </c>
+      <c r="H72" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANwf</v>
       </c>
-      <c r="G72" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I72" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H72" s="16" t="str">
+      <c r="J72" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>ANwf_3_11-35</v>
       </c>
       <c r="B73" t="s">
@@ -3883,26 +4377,34 @@
       <c r="E73">
         <v>40</v>
       </c>
-      <c r="F73" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F73" s="20">
+        <f t="shared" si="14"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="G73" s="20">
+        <f t="shared" si="15"/>
+        <v>5.1839511616075979</v>
+      </c>
+      <c r="H73" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>ANwf</v>
       </c>
-      <c r="G73" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I73" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H73" s="16" t="str">
+      <c r="J73" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="K73" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="I73" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_1_0-3</v>
       </c>
       <c r="B74" t="s">
@@ -3917,26 +4419,34 @@
       <c r="E74">
         <v>100</v>
       </c>
-      <c r="F74" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F74" s="20">
+        <f t="shared" si="14"/>
+        <v>21.082042541994323</v>
+      </c>
+      <c r="G74" s="20">
+        <f t="shared" si="15"/>
+        <v>0.86998038719658977</v>
+      </c>
+      <c r="H74" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G74" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H74" s="16" t="str">
+      <c r="I74" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J74" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_1_3-8</v>
       </c>
       <c r="B75" t="s">
@@ -3951,26 +4461,34 @@
       <c r="E75">
         <v>100</v>
       </c>
-      <c r="F75" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F75" s="20">
+        <f t="shared" si="14"/>
+        <v>35.13673756999053</v>
+      </c>
+      <c r="G75" s="20">
+        <f t="shared" si="15"/>
+        <v>0.81672091937269475</v>
+      </c>
+      <c r="H75" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G75" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H75" s="16" t="str">
+      <c r="I75" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J75" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K75" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="I75" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_1_8-27</v>
       </c>
       <c r="B76" t="s">
@@ -3985,26 +4503,34 @@
       <c r="E76">
         <v>70</v>
       </c>
-      <c r="F76" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F76" s="20">
+        <f t="shared" si="14"/>
+        <v>150.02954329103116</v>
+      </c>
+      <c r="G76" s="20">
+        <f t="shared" si="15"/>
+        <v>1.4533352100223662</v>
+      </c>
+      <c r="H76" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G76" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H76" s="16" t="str">
+      <c r="I76" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J76" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="K76" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="I76" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_2_0-3</v>
       </c>
       <c r="B77" t="s">
@@ -4019,26 +4545,34 @@
       <c r="E77">
         <v>100</v>
       </c>
-      <c r="F77" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F77" s="20">
+        <f t="shared" si="14"/>
+        <v>21.082042541994323</v>
+      </c>
+      <c r="G77" s="20">
+        <f t="shared" si="15"/>
+        <v>2.6907933435773503</v>
+      </c>
+      <c r="H77" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G77" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H77" s="16" t="str">
+      <c r="I77" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J77" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_2_3-8</v>
       </c>
       <c r="B78" t="s">
@@ -4053,26 +4587,34 @@
       <c r="E78">
         <v>100</v>
       </c>
-      <c r="F78" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F78" s="20">
+        <f t="shared" si="14"/>
+        <v>35.13673756999053</v>
+      </c>
+      <c r="G78" s="20">
+        <f t="shared" si="15"/>
+        <v>0.77602115691513274</v>
+      </c>
+      <c r="H78" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G78" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H78" s="16" t="str">
+      <c r="I78" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J78" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K78" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="I78" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_2_8-27</v>
       </c>
       <c r="B79" t="s">
@@ -4087,26 +4629,34 @@
       <c r="E79">
         <v>70</v>
       </c>
-      <c r="F79" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F79" s="20">
+        <f t="shared" si="14"/>
+        <v>150.02954329103116</v>
+      </c>
+      <c r="G79" s="20">
+        <f t="shared" si="15"/>
+        <v>1.9398264547296222</v>
+      </c>
+      <c r="H79" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G79" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H79" s="16" t="str">
+      <c r="I79" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J79" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="K79" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="I79" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_3_0-3</v>
       </c>
       <c r="B80" t="s">
@@ -4121,26 +4671,34 @@
       <c r="E80">
         <v>100</v>
       </c>
-      <c r="F80" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F80" s="20">
+        <f t="shared" si="14"/>
+        <v>21.082042541994323</v>
+      </c>
+      <c r="G80" s="20">
+        <f t="shared" si="15"/>
+        <v>1.7803868653869699</v>
+      </c>
+      <c r="H80" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G80" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I80" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H80" s="16" t="str">
+      <c r="J80" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_3_3-8</v>
       </c>
       <c r="B81" t="s">
@@ -4155,26 +4713,34 @@
       <c r="E81">
         <v>100</v>
       </c>
-      <c r="F81" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F81" s="20">
+        <f t="shared" si="14"/>
+        <v>35.13673756999053</v>
+      </c>
+      <c r="G81" s="20">
+        <f t="shared" si="15"/>
+        <v>0.73758973827291452</v>
+      </c>
+      <c r="H81" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G81" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I81" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H81" s="16" t="str">
+      <c r="J81" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K81" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="I81" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRrf_3_8-27</v>
       </c>
       <c r="B82" t="s">
@@ -4189,26 +4755,34 @@
       <c r="E82">
         <v>70</v>
       </c>
-      <c r="F82" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F82" s="20">
+        <f t="shared" si="14"/>
+        <v>150.02954329103116</v>
+      </c>
+      <c r="G82" s="20">
+        <f t="shared" si="15"/>
+        <v>1.8040982654457138</v>
+      </c>
+      <c r="H82" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRrf</v>
       </c>
-      <c r="G82" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I82" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H82" s="16" t="str">
+      <c r="J82" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="K82" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="I82" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_1_0-7</v>
       </c>
       <c r="B83" t="s">
@@ -4223,26 +4797,34 @@
       <c r="E83">
         <v>100</v>
       </c>
-      <c r="F83" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F83" s="20">
+        <f t="shared" si="14"/>
+        <v>53.599714641934874</v>
+      </c>
+      <c r="G83" s="20">
+        <f t="shared" si="15"/>
+        <v>3.7493823004778353</v>
+      </c>
+      <c r="H83" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G83" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H83" s="16" t="str">
+      <c r="I83" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J83" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_1_7-15</v>
       </c>
       <c r="B84" t="s">
@@ -4257,26 +4839,34 @@
       <c r="E84">
         <v>100</v>
       </c>
-      <c r="F84" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F84" s="20">
+        <f t="shared" si="14"/>
+        <v>83.437614121678351</v>
+      </c>
+      <c r="G84" s="20">
+        <f t="shared" si="15"/>
+        <v>2.3755872724605203</v>
+      </c>
+      <c r="H84" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G84" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H84" s="16" t="str">
+      <c r="I84" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J84" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="K84" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="I84" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_1_15-27</v>
       </c>
       <c r="B85" t="s">
@@ -4291,26 +4881,34 @@
       <c r="E85">
         <v>100</v>
       </c>
-      <c r="F85" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F85" s="20">
+        <f t="shared" si="14"/>
+        <v>108.37057910540537</v>
+      </c>
+      <c r="G85" s="20">
+        <f t="shared" si="15"/>
+        <v>0.74874525507934675</v>
+      </c>
+      <c r="H85" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G85" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H85" s="16" t="str">
+      <c r="I85" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J85" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="K85" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="I85" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_2_0-7</v>
       </c>
       <c r="B86" t="s">
@@ -4325,26 +4923,34 @@
       <c r="E86">
         <v>100</v>
       </c>
-      <c r="F86" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F86" s="20">
+        <f t="shared" si="14"/>
+        <v>53.599714641934874</v>
+      </c>
+      <c r="G86" s="20">
+        <f t="shared" si="15"/>
+        <v>3.507341053860082</v>
+      </c>
+      <c r="H86" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G86" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H86" s="16" t="str">
+      <c r="I86" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J86" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_2_7-15</v>
       </c>
       <c r="B87" t="s">
@@ -4359,26 +4965,34 @@
       <c r="E87">
         <v>100</v>
       </c>
-      <c r="F87" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F87" s="20">
+        <f t="shared" si="14"/>
+        <v>83.437614121678351</v>
+      </c>
+      <c r="G87" s="20">
+        <f t="shared" si="15"/>
+        <v>4.5826232778734575</v>
+      </c>
+      <c r="H87" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G87" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H87" s="16" t="str">
+      <c r="I87" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J87" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="K87" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="I87" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_2_15-27</v>
       </c>
       <c r="B88" t="s">
@@ -4393,26 +5007,34 @@
       <c r="E88">
         <v>100</v>
       </c>
-      <c r="F88" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F88" s="20">
+        <f t="shared" si="14"/>
+        <v>108.37057910540537</v>
+      </c>
+      <c r="G88" s="20">
+        <f t="shared" si="15"/>
+        <v>1.7156617876596065</v>
+      </c>
+      <c r="H88" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G88" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H88" s="16" t="str">
+      <c r="I88" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J88" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="K88" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="I88" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_3_0-7</v>
       </c>
       <c r="B89" t="s">
@@ -4427,26 +5049,34 @@
       <c r="E89">
         <v>100</v>
       </c>
-      <c r="F89" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F89" s="20">
+        <f t="shared" si="14"/>
+        <v>53.599714641934874</v>
+      </c>
+      <c r="G89" s="20">
+        <f t="shared" si="15"/>
+        <v>3.2652998072423283</v>
+      </c>
+      <c r="H89" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G89" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I89" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H89" s="16" t="str">
+      <c r="J89" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_3_7-15</v>
       </c>
       <c r="B90" t="s">
@@ -4461,26 +5091,34 @@
       <c r="E90">
         <v>100</v>
       </c>
-      <c r="F90" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F90" s="20">
+        <f t="shared" si="14"/>
+        <v>83.437614121678351</v>
+      </c>
+      <c r="G90" s="20">
+        <f t="shared" si="15"/>
+        <v>1.6369883159332386</v>
+      </c>
+      <c r="H90" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G90" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I90" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H90" s="16" t="str">
+      <c r="J90" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="K90" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="I90" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>GRpp_3_15-27</v>
       </c>
       <c r="B91" t="s">
@@ -4495,26 +5133,34 @@
       <c r="E91">
         <v>100</v>
       </c>
-      <c r="F91" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F91" s="20">
+        <f t="shared" si="14"/>
+        <v>108.37057910540537</v>
+      </c>
+      <c r="G91" s="20">
+        <f t="shared" si="15"/>
+        <v>0.8437483115880664</v>
+      </c>
+      <c r="H91" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRpp</v>
       </c>
-      <c r="G91" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I91" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H91" s="16" t="str">
+      <c r="J91" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="K91" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="I91" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>_1_1-5</v>
       </c>
       <c r="B92" t="s">
@@ -4529,26 +5175,28 @@
       <c r="E92">
         <v>85</v>
       </c>
-      <c r="F92" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G92" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H92" s="16" t="str">
+      <c r="I92" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J92" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K92" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="I92" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>_1_K1-13</v>
       </c>
       <c r="B93" t="s">
@@ -4563,26 +5211,28 @@
       <c r="E93">
         <v>90</v>
       </c>
-      <c r="F93" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G93" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H93" s="16" t="str">
+      <c r="I93" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J93" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>K1</v>
+      </c>
+      <c r="K93" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>K1</v>
-      </c>
-      <c r="I93" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>_1_K1-26</v>
       </c>
       <c r="B94" t="s">
@@ -4597,26 +5247,28 @@
       <c r="E94">
         <v>90</v>
       </c>
-      <c r="F94" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G94" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H94" s="16" t="str">
+      <c r="I94" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J94" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>K1</v>
+      </c>
+      <c r="K94" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>K1</v>
-      </c>
-      <c r="I94" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>_2_2-5</v>
       </c>
       <c r="B95" t="s">
@@ -4631,26 +5283,28 @@
       <c r="E95">
         <v>85</v>
       </c>
-      <c r="F95" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G95" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H95" s="16" t="str">
+      <c r="I95" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J95" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K95" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="I95" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>_2_K2-13</v>
       </c>
       <c r="B96" t="s">
@@ -4665,26 +5319,28 @@
       <c r="E96">
         <v>90</v>
       </c>
-      <c r="F96" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G96" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H96" s="16" t="str">
+      <c r="I96" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J96" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>K2</v>
+      </c>
+      <c r="K96" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>K2</v>
-      </c>
-      <c r="I96" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="16" t="str">
-        <f t="shared" si="8"/>
         <v>_2_K2-26</v>
       </c>
       <c r="B97" t="s">
@@ -4699,26 +5355,28 @@
       <c r="E97">
         <v>90</v>
       </c>
-      <c r="F97" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G97" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H97" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="I97" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J97" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>K2</v>
       </c>
-      <c r="I97" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K97" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:11">
       <c r="A98" s="16" t="str">
-        <f t="shared" ref="A98:A109" si="12">F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;"-"&amp;I98</f>
+        <f t="shared" ref="A98:A109" si="17">H98&amp;"_"&amp;I98&amp;"_"&amp;J98&amp;"-"&amp;K98</f>
         <v>_3_3-5</v>
       </c>
       <c r="B98" t="s">
@@ -4733,26 +5391,28 @@
       <c r="E98">
         <v>85</v>
       </c>
-      <c r="F98" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G98" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I98" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H98" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="J98" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="I98" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K98" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:11">
       <c r="A99" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>_3_K3-13</v>
       </c>
       <c r="B99" t="s">
@@ -4767,26 +5427,28 @@
       <c r="E99">
         <v>90</v>
       </c>
-      <c r="F99" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G99" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I99" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H99" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="J99" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>K3</v>
       </c>
-      <c r="I99" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K99" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:11">
       <c r="A100" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>_3_K3-26</v>
       </c>
       <c r="B100" t="s">
@@ -4801,26 +5463,28 @@
       <c r="E100">
         <v>90</v>
       </c>
-      <c r="F100" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="16" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G100" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I100" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H100" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="J100" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>K3</v>
       </c>
-      <c r="I100" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K100" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11">
       <c r="A101" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_1_0-4</v>
       </c>
       <c r="B101" t="s">
@@ -4835,26 +5499,34 @@
       <c r="E101">
         <v>100</v>
       </c>
-      <c r="F101" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F101" s="20">
+        <f t="shared" si="14"/>
+        <v>16.788088143530743</v>
+      </c>
+      <c r="G101" s="20">
+        <f t="shared" ref="G101:G109" si="18">F101*C101*10^-2</f>
+        <v>1.1851431059050952</v>
+      </c>
+      <c r="H101" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRwf</v>
       </c>
-      <c r="G101" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H101" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="I101" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:11">
       <c r="A102" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_1_4-13</v>
       </c>
       <c r="B102" t="s">
@@ -4869,26 +5541,34 @@
       <c r="E102">
         <v>100</v>
       </c>
-      <c r="F102" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F102" s="20">
+        <f t="shared" si="14"/>
+        <v>71.830305512688042</v>
+      </c>
+      <c r="G102" s="20">
+        <f t="shared" si="18"/>
+        <v>2.8312070019332078</v>
+      </c>
+      <c r="H102" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRwf</v>
       </c>
-      <c r="G102" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H102" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="I102" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J102" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="I102" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K102" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:11">
       <c r="A103" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_1_13-28</v>
       </c>
       <c r="B103" t="s">
@@ -4903,26 +5583,34 @@
       <c r="E103">
         <v>100</v>
       </c>
-      <c r="F103" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F103" s="20">
+        <f t="shared" si="14"/>
+        <v>135.81940443886964</v>
+      </c>
+      <c r="G103" s="20">
+        <f t="shared" si="18"/>
+        <v>1.4307522562234807</v>
+      </c>
+      <c r="H103" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRwf</v>
       </c>
-      <c r="G103" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H103" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="I103" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J103" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="I103" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K103" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:11">
       <c r="A104" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_2_0-4</v>
       </c>
       <c r="B104" t="s">
@@ -4937,26 +5625,34 @@
       <c r="E104">
         <v>100</v>
       </c>
-      <c r="F104" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F104" s="20">
+        <f t="shared" si="14"/>
+        <v>16.788088143530743</v>
+      </c>
+      <c r="G104" s="20">
+        <f t="shared" si="18"/>
+        <v>0.90946426504388467</v>
+      </c>
+      <c r="H104" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRwf</v>
       </c>
-      <c r="G104" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H104" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="I104" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J104" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:11">
       <c r="A105" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_2_4-13</v>
       </c>
       <c r="B105" t="s">
@@ -4971,26 +5667,34 @@
       <c r="E105">
         <v>100</v>
       </c>
-      <c r="F105" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F105" s="20">
+        <f t="shared" si="14"/>
+        <v>71.830305512688042</v>
+      </c>
+      <c r="G105" s="20">
+        <f t="shared" si="18"/>
+        <v>1.4087481217271332</v>
+      </c>
+      <c r="H105" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRwf</v>
       </c>
-      <c r="G105" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H105" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="I105" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J105" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="I105" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K105" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:11">
       <c r="A106" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_2_13-28</v>
       </c>
       <c r="B106" t="s">
@@ -5005,26 +5709,34 @@
       <c r="E106">
         <v>100</v>
       </c>
-      <c r="F106" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F106" s="20">
+        <f t="shared" si="14"/>
+        <v>135.81940443886964</v>
+      </c>
+      <c r="G106" s="20">
+        <f t="shared" si="18"/>
+        <v>2.2640553218875339</v>
+      </c>
+      <c r="H106" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRwf</v>
       </c>
-      <c r="G106" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H106" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="I106" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J106" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="I106" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K106" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:11">
       <c r="A107" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_3_0-4</v>
       </c>
       <c r="B107" t="s">
@@ -5039,26 +5751,34 @@
       <c r="E107">
         <v>100</v>
       </c>
-      <c r="F107" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F107" s="20">
+        <f t="shared" si="14"/>
+        <v>16.788088143530743</v>
+      </c>
+      <c r="G107" s="20">
+        <f t="shared" si="18"/>
+        <v>1.4608219467663057</v>
+      </c>
+      <c r="H107" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRwf</v>
       </c>
-      <c r="G107" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I107" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H107" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="J107" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:11">
       <c r="A108" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_3_4-13</v>
       </c>
       <c r="B108" t="s">
@@ -5073,26 +5793,34 @@
       <c r="E108">
         <v>100</v>
       </c>
-      <c r="F108" s="16" t="str">
-        <f t="shared" si="7"/>
+      <c r="F108" s="20">
+        <f t="shared" si="14"/>
+        <v>71.830305512688042</v>
+      </c>
+      <c r="G108" s="20">
+        <f t="shared" si="18"/>
+        <v>2.6260303782193821</v>
+      </c>
+      <c r="H108" s="16" t="str">
+        <f t="shared" si="10"/>
         <v>GRwf</v>
       </c>
-      <c r="G108" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I108" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H108" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="J108" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="I108" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K108" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:11">
       <c r="A109" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>GRwf_3_13-28</v>
       </c>
       <c r="B109" t="s">
@@ -5107,25 +5835,34 @@
       <c r="E109">
         <v>100</v>
       </c>
-      <c r="F109" s="16" t="str">
+      <c r="F109" s="20">
+        <f t="shared" si="14"/>
+        <v>135.81940443886964</v>
+      </c>
+      <c r="G109" s="20">
+        <f t="shared" si="18"/>
+        <v>2.0795527407796</v>
+      </c>
+      <c r="H109" s="16" t="str">
         <f>IF(LEFT(B109,4)="BSRF","BSrf",IF(LEFT(B109,4)="BSSP","BSwf",IF(LEFT(B109,4)="BSPP","BSpp",IF(LEFT(B109,4)="BSOK","",IF(LEFT(B109,4)="ANRF","ANrf",IF(LEFT(B109,4)="ANSP","ANwf",IF(LEFT(B109,4)="ANPP","ANpp",IF(LEFT(B109,4)="GRRF","GRrf",IF(LEFT(B109,4)="GRSP","GRwf",IF(LEFT(B109,4)="GRPP","GRpp",""))))))))))</f>
         <v>GRwf</v>
       </c>
-      <c r="G109" s="16" t="str">
-        <f t="shared" si="9"/>
+      <c r="I109" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H109" s="16" t="str">
-        <f t="shared" si="11"/>
+      <c r="J109" s="16" t="str">
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="I109" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="K109" s="16" t="str">
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5138,8 +5875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19656,7 +20393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
